--- a/Sub/soliflex/soliflexweb/soliflexweb/backend.xlsx
+++ b/Sub/soliflex/soliflexweb/soliflexweb/backend.xlsx
@@ -520,7 +520,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -831,9 +831,26 @@
         <v>purchase_team</v>
       </c>
     </row>
+    <row r="19">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="str">
+        <v>security2</v>
+      </c>
+      <c r="C19" t="str">
+        <v>$2b$08$f.qt7MWj5.ANel/ywrFK2OVFOCd.bK1bS4KvrUYnwfcxX9PBMD...</v>
+      </c>
+      <c r="D19">
+        <v>9</v>
+      </c>
+      <c r="E19" t="str">
+        <v>security</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E18"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E19"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -862,88 +879,88 @@
         <v>weight_unit</v>
       </c>
       <c r="F1" t="str">
+        <v>created_by</v>
+      </c>
+      <c r="G1" t="str">
+        <v>created_at</v>
+      </c>
+      <c r="H1" t="str">
+        <v>stages</v>
+      </c>
+      <c r="I1" t="str">
+        <v>status</v>
+      </c>
+      <c r="J1" t="str">
+        <v>other_splits</v>
+      </c>
+      <c r="K1" t="str">
+        <v>total_cost</v>
+      </c>
+      <c r="L1" t="str">
+        <v>gst</v>
+      </c>
+      <c r="M1" t="str">
+        <v>state_tax</v>
+      </c>
+      <c r="N1" t="str">
+        <v>trucks</v>
+      </c>
+      <c r="O1" t="str">
+        <v>transport_type</v>
+      </c>
+      <c r="P1" t="str">
+        <v>source_factory</v>
+      </c>
+      <c r="Q1" t="str">
+        <v>dest_factories</v>
+      </c>
+      <c r="R1" t="str">
         <v>invoice_amount</v>
       </c>
-      <c r="G1" t="str">
+      <c r="S1" t="str">
         <v>sgst</v>
       </c>
-      <c r="H1" t="str">
+      <c r="T1" t="str">
         <v>cgst</v>
       </c>
-      <c r="I1" t="str">
+      <c r="U1" t="str">
+        <v>eta_time_unit</v>
+      </c>
+      <c r="V1" t="str">
+        <v>eta_value</v>
+      </c>
+      <c r="W1" t="str">
         <v>tariff_hsn</v>
       </c>
-      <c r="J1" t="str">
+      <c r="X1" t="str">
         <v>vehicle_height</v>
       </c>
-      <c r="K1" t="str">
+      <c r="Y1" t="str">
         <v>vehicle_height_option</v>
       </c>
-      <c r="L1" t="str">
+      <c r="Z1" t="str">
         <v>toll</v>
       </c>
-      <c r="M1" t="str">
+      <c r="AA1" t="str">
         <v>halting_days</v>
       </c>
-      <c r="N1" t="str">
+      <c r="AB1" t="str">
         <v>halting_charge</v>
       </c>
-      <c r="O1" t="str">
+      <c r="AC1" t="str">
         <v>extra_point_pickup</v>
       </c>
-      <c r="P1" t="str">
+      <c r="AD1" t="str">
         <v>po_rate</v>
       </c>
-      <c r="Q1" t="str">
+      <c r="AE1" t="str">
         <v>actual_payable</v>
       </c>
-      <c r="R1" t="str">
+      <c r="AF1" t="str">
         <v>debit_note</v>
       </c>
-      <c r="S1" t="str">
-        <v>created_by</v>
-      </c>
-      <c r="T1" t="str">
-        <v>created_at</v>
-      </c>
-      <c r="U1" t="str">
-        <v>stages</v>
-      </c>
-      <c r="V1" t="str">
-        <v>status</v>
-      </c>
-      <c r="W1" t="str">
-        <v>trucks</v>
-      </c>
-      <c r="X1" t="str">
-        <v>transport_type</v>
-      </c>
-      <c r="Y1" t="str">
-        <v>source_factory</v>
-      </c>
-      <c r="Z1" t="str">
-        <v>dest_factories</v>
-      </c>
-      <c r="AA1" t="str">
+      <c r="AG1" t="str">
         <v>trip_stages</v>
-      </c>
-      <c r="AB1" t="str">
-        <v>eta_time_unit</v>
-      </c>
-      <c r="AC1" t="str">
-        <v>eta_value</v>
-      </c>
-      <c r="AD1" t="str">
-        <v>other_splits</v>
-      </c>
-      <c r="AE1" t="str">
-        <v>total_cost</v>
-      </c>
-      <c r="AF1" t="str">
-        <v>gst</v>
-      </c>
-      <c r="AG1" t="str">
-        <v>state_tax</v>
       </c>
     </row>
     <row r="2">
@@ -962,28 +979,28 @@
       <c r="E2" t="str">
         <v>kg</v>
       </c>
-      <c r="S2">
+      <c r="F2">
         <v>9</v>
       </c>
-      <c r="T2" t="str">
+      <c r="G2" t="str">
         <v>2025-07-14T00:19:47.743Z</v>
       </c>
-      <c r="U2" t="str">
+      <c r="H2" t="str">
         <v>[{"name":"Order Approved","status":"completed","approver":"admin1","timestamp":"2025-07-14T00:19:58.862Z","comments":"Stage approved","action":"approve"},{"name":"Vehicle Entry Approved (Source)","status":"completed","approver":"admin1","timestamp":"2025-07-14T00:20:04.624Z","comments":"Stage approved","action":"approve"},{"name":"Consignment Verification (Source)","status":"completed","approver":"admin1","timestamp":"2025-07-14T00:20:16.757Z","comments":"Not satisfactory","action":"approve"},{"name":"Vehicle Exit (Source)","status":"completed","approver":"admin1","timestamp":"2025-07-14T00:20:22.001Z","comments":"Stage approved","action":"approve"},{"name":"Vehicle Entry (Destination)","status":"completed","approver":"admin1","timestamp":"2025-07-14T00:20:25.005Z","comments":"Stage approved","action":"approve"},{"name":"Consignment Verification (Destination)","status":"completed","approver":"admin1","timestamp":"2025-07-14T00:20:39.005Z","comments":"slightly low on consignment","action":"approve"},{"name":"Vehicle Exit (Destination)","status":"completed","approver":"admin1","timestamp":"2025-07-14T00:20:41.689Z","comments":"Stage approved","action":"approve"}]</v>
       </c>
-      <c r="V2" t="str">
+      <c r="I2" t="str">
         <v>completed</v>
       </c>
-      <c r="AD2" t="str">
+      <c r="J2" t="str">
         <v/>
       </c>
-      <c r="AE2" t="str">
+      <c r="K2" t="str">
         <v>24345</v>
       </c>
-      <c r="AF2" t="str">
+      <c r="L2" t="str">
         <v>345</v>
       </c>
-      <c r="AG2" t="str">
+      <c r="M2" t="str">
         <v>234</v>
       </c>
     </row>
@@ -1003,28 +1020,28 @@
       <c r="E3" t="str">
         <v>kg</v>
       </c>
-      <c r="S3">
+      <c r="F3">
         <v>9</v>
       </c>
-      <c r="T3" t="str">
+      <c r="G3" t="str">
         <v>2025-07-14T00:25:45.406Z</v>
       </c>
-      <c r="U3" t="str">
+      <c r="H3" t="str">
         <v>[{"name":"Order Approved","status":"completed","approver":"admin1","timestamp":"2025-07-14T01:22:18.574Z","comments":"Stage approved","action":"approve"},{"name":"Vehicle Entry Approved (Source)","status":"completed","approver":"admin1","timestamp":"2025-07-14T01:22:25.356Z","comments":"Stage approved","action":"approve"},{"name":"Consignment Verification (Source)","status":"completed","approver":"admin1","timestamp":"2025-07-14T01:23:02.082Z","comments":"Vehicle reached with comments: approved post reject","action":"reached_with_comments"},{"name":"Vehicle Exit (Source)","status":"completed","approver":"admin1","timestamp":"2025-07-14T07:22:56.081Z","comments":"Stage approved","action":"approve"},{"name":"Vehicle Entry (Destination)","status":"completed","approver":"admin1","timestamp":"2025-07-14T07:22:58.170Z","comments":"Stage approved","action":"approve"},{"name":"Consignment Verification (Destination)","status":"completed","approver":"admin1","timestamp":"2025-07-14T09:52:56.957Z","comments":"Vehicle reached with comments: perfect","action":"reached_with_comments","department_name":"Admin"},{"name":"Vehicle Exit (Destination)","status":"completed","approver":"Dharmendra","timestamp":"2025-07-17T01:09:34.915Z","comments":"Stage approved","action":"approve","department_name":"Admin"}]</v>
       </c>
-      <c r="V3" t="str">
+      <c r="I3" t="str">
         <v>completed</v>
       </c>
-      <c r="AD3" t="str">
+      <c r="J3" t="str">
         <v/>
       </c>
-      <c r="AE3" t="str">
+      <c r="K3" t="str">
         <v>40000</v>
       </c>
-      <c r="AF3" t="str">
+      <c r="L3" t="str">
         <v>234</v>
       </c>
-      <c r="AG3" t="str">
+      <c r="M3" t="str">
         <v>435</v>
       </c>
     </row>
@@ -1044,28 +1061,28 @@
       <c r="E4" t="str">
         <v>kg</v>
       </c>
-      <c r="S4">
+      <c r="F4">
         <v>9</v>
       </c>
-      <c r="T4" t="str">
+      <c r="G4" t="str">
         <v>2025-07-14T00:35:03.005Z</v>
       </c>
-      <c r="U4" t="str">
+      <c r="H4" t="str">
         <v>[{"name":"Order Approved","status":"completed","approver":"admin1","timestamp":"2025-07-14T00:35:21.578Z","comments":"Stage approved","action":"approve"},{"name":"Vehicle Entry Approved (Source)","status":"completed","approver":"admin1","timestamp":"2025-07-14T00:35:23.493Z","comments":"Stage approved","action":"approve"},{"name":"Consignment Verification (Source)","status":"completed","approver":"admin1","timestamp":"2025-07-14T00:35:30.372Z","comments":"good","action":"approve"},{"name":"Vehicle Exit (Source)","status":"completed","approver":"admin1","timestamp":"2025-07-14T00:35:32.905Z","comments":"Stage approved","action":"approve"},{"name":"Vehicle Entry (Destination)","status":"completed","approver":"admin1","timestamp":"2025-07-14T00:35:34.485Z","comments":"Stage approved","action":"approve"},{"name":"Consignment Verification (Destination)","status":"completed","approver":"admin1","timestamp":"2025-07-14T00:35:39.528Z","comments":"Stage approved","action":"approve"},{"name":"Vehicle Exit (Destination)","status":"completed","approver":"admin1","timestamp":"2025-07-14T00:35:41.490Z","comments":"Stage approved","action":"approve"}]</v>
       </c>
-      <c r="V4" t="str">
+      <c r="I4" t="str">
         <v>completed</v>
       </c>
-      <c r="AD4" t="str">
+      <c r="J4" t="str">
         <v/>
       </c>
-      <c r="AE4" t="str">
+      <c r="K4" t="str">
         <v>3454</v>
       </c>
-      <c r="AF4" t="str">
+      <c r="L4" t="str">
         <v>567</v>
       </c>
-      <c r="AG4" t="str">
+      <c r="M4" t="str">
         <v>43</v>
       </c>
     </row>
@@ -1085,41 +1102,41 @@
       <c r="E5" t="str">
         <v>kg</v>
       </c>
-      <c r="S5">
+      <c r="F5">
         <v>9</v>
       </c>
-      <c r="T5" t="str">
+      <c r="G5" t="str">
         <v>2025-07-14T01:31:17.902Z</v>
       </c>
-      <c r="U5" t="str">
+      <c r="H5" t="str">
         <v>[{"name":"Order Approved","role":"admin","status":"completed","approver":"admin1","timestamp":"2025-07-21T14:18:07.130Z","comments":"Stage approved","action":"approve","truck_number":"KA06A9729                      ","department_name":"Admin"},{"name":"Vehicle Entry Approved (INNOVA Polypack)","role":"security","status":"completed","approver":"admin1","timestamp":"2025-07-21T14:18:10.196Z","comments":"Stage approved","action":"approve","truck_number":"KA06A9729                      ","department_name":"Admin"},{"name":"Consignment Verification (INNOVA Polypack)","role":"stores","status":"completed","approver":"admin1","timestamp":"2025-07-21T14:18:17.442Z","comments":"Vehicle reached with comments: good","action":"reached_with_comments","truck_number":"KA06A9729                      ","department_name":"Admin"},{"name":"Vehicle Exit (INNOVA Polypack)","role":"security","status":"completed","approver":"admin1","timestamp":"2025-07-21T14:19:48.852Z","comments":"Stage approved","action":"approve","truck_number":"KA06A9729                      ","department_name":"Admin"},{"name":"Vehicle Entry (Rotech enginering)","role":"security","status":"completed","approver":"admin1","timestamp":"2025-07-21T14:19:50.413Z","comments":"Stage approved","action":"approve","truck_number":"KA06A9729                      ","department_name":"Admin"},{"name":"Consignment Verification (Rotech enginering)","role":"stores","status":"completed","approver":"admin1","timestamp":"2025-07-21T14:19:55.889Z","comments":"Vehicle reached with comments: best","action":"reached_with_comments","truck_number":"KA06A9729                      ","department_name":"Admin"},{"name":"Vehicle Exit (Rotech enginering)","role":"security","status":"completed","approver":"admin1","timestamp":"2025-07-21T14:20:00.058Z","comments":"Stage approved","action":"approve","truck_number":"KA06A9729                      ","department_name":"Admin"},{"name":"Order Approved","role":"admin","status":"completed","approver":"admin1","timestamp":"2025-07-21T14:20:01.437Z","comments":"Stage approved","action":"approve","truck_number":"KA06A9729                      ","department_name":"Admin"},{"name":"Vehicle Entry Approved (Rotech enginering)","role":"security","status":"completed","approver":"admin1","timestamp":"2025-07-21T14:20:03.497Z","comments":"Stage approved","action":"approve","truck_number":"KA06A9729                      ","department_name":"Admin"},{"name":"Consignment Verification (Rotech enginering)","role":"stores","status":"completed","approver":"admin1","timestamp":"2025-07-21T14:20:16.425Z","comments":"Vehicle reached with comments: fully satisfied","action":"reached_with_comments","truck_number":"KA06A9729                      ","department_name":"Admin"},{"name":"Vehicle Exit (Rotech enginering)","role":"security","status":"completed","approver":"admin1","timestamp":"2025-07-21T14:20:18.909Z","comments":"Stage approved","action":"approve","truck_number":"KA06A9729                      ","department_name":"Admin"},{"name":"Vehicle Entry (CHAKRAPANI VYAPAR PRIVATE LIMITED)","role":"security","status":"completed","approver":"admin1","timestamp":"2025-07-21T14:20:20.425Z","comments":"Stage approved","action":"approve","truck_number":"KA06A9729                      ","department_name":"Admin"},{"name":"Consignment Verification (CHAKRAPANI VYAPAR PRIVATE LIMITED)","role":"stores","status":"completed","approver":"admin1","timestamp":"2025-07-21T14:20:28.158Z","comments":"Vehicle reached with comments: perfect","action":"reached_with_comments","truck_number":"KA06A9729                      ","department_name":"Admin"},{"name":"Vehicle Exit (CHAKRAPANI VYAPAR PRIVATE LIMITED)","role":"security","status":"completed","approver":"admin1","timestamp":"2025-07-21T14:20:30.006Z","comments":"Stage approved","action":"approve","truck_number":"KA06A9729                      ","department_name":"Admin"},{"name":"Order Approved","role":"admin","status":"completed","approver":"admin1","timestamp":"2025-07-21T14:20:32.245Z","comments":"Stage approved","action":"approve","truck_number":"KA06A9729                      ","department_name":"Admin"},{"name":"Vehicle Entry Approved (CHAKRAPANI VYAPAR PRIVATE LIMITED)","role":"security","status":"completed","approver":"admin1","timestamp":"2025-07-21T14:20:34.326Z","comments":"Stage approved","action":"approve","truck_number":"KA06A9729                      ","department_name":"Admin"},{"name":"Consignment Verification (CHAKRAPANI VYAPAR PRIVATE LIMITED)","role":"stores","status":"completed","approver":"admin1","timestamp":"2025-07-21T14:20:39.356Z","comments":"Vehicle reached with comments: best","action":"reached_with_comments","truck_number":"KA06A9729                      ","department_name":"Admin"},{"name":"Vehicle Exit (CHAKRAPANI VYAPAR PRIVATE LIMITED)","role":"security","status":"completed","approver":"admin1","timestamp":"2025-07-21T14:20:41.111Z","comments":"Stage approved","action":"approve","truck_number":"KA06A9729                      ","department_name":"Admin"},{"name":"Vehicle Entry (INNOVA Polypack)","role":"security","status":"completed","approver":"admin1","timestamp":"2025-07-21T14:20:43.064Z","comments":"Stage approved","action":"approve","truck_number":"KA06A9729                      ","department_name":"Admin"},{"name":"Consignment Verification (INNOVA Polypack)","role":"stores","status":"completed","approver":"admin1","timestamp":"2025-07-21T14:20:48.519Z","comments":"Vehicle reached with comments: correct","action":"reached_with_comments","truck_number":"KA06A9729                      ","department_name":"Admin"},{"name":"Vehicle Exit (INNOVA Polypack)","role":"security","status":"completed","approver":"admin1","timestamp":"2025-07-21T14:20:50.645Z","comments":"Stage approved","action":"approve","truck_number":"KA06A9729                      ","department_name":"Admin"}]</v>
       </c>
-      <c r="V5" t="str">
+      <c r="I5" t="str">
         <v>completed</v>
       </c>
-      <c r="W5" t="str">
+      <c r="J5" t="str">
+        <v/>
+      </c>
+      <c r="K5" t="str">
+        <v>3457</v>
+      </c>
+      <c r="L5" t="str">
+        <v>567</v>
+      </c>
+      <c r="M5" t="str">
+        <v>234</v>
+      </c>
+      <c r="N5" t="str">
         <v xml:space="preserve">KA06A9729                      </v>
       </c>
-      <c r="X5" t="str">
+      <c r="O5" t="str">
         <v>multiple</v>
       </c>
-      <c r="Y5" t="str">
+      <c r="P5" t="str">
         <v>INNOVA Polypack</v>
       </c>
-      <c r="Z5" t="str">
+      <c r="Q5" t="str">
         <v>Rotech enginering,CHAKRAPANI VYAPAR PRIVATE LIMITED,INNOVA Polypack</v>
-      </c>
-      <c r="AD5" t="str">
-        <v/>
-      </c>
-      <c r="AE5" t="str">
-        <v>3457</v>
-      </c>
-      <c r="AF5" t="str">
-        <v>567</v>
-      </c>
-      <c r="AG5" t="str">
-        <v>234</v>
       </c>
     </row>
     <row r="6">
@@ -1138,41 +1155,41 @@
       <c r="E6" t="str">
         <v>kg</v>
       </c>
-      <c r="S6">
+      <c r="F6">
         <v>9</v>
       </c>
-      <c r="T6" t="str">
+      <c r="G6" t="str">
         <v>2025-07-14T07:13:29.704Z</v>
       </c>
-      <c r="U6" t="str">
+      <c r="H6" t="str">
         <v>[{"name":"Order Approved","role":"admin","status":"completed","approver":"newuser","timestamp":"2025-07-17T09:35:45.153Z","comments":"Stage approved","action":"approve","truck_number":"KA150323                         ","department_name":"Admin"},{"name":"Vehicle Entry Approved (SUNSHINE INDUSTRIES)","role":"security","status":"completed","approver":"newuser","timestamp":"2025-07-17T09:35:46.793Z","comments":"Stage approved","action":"approve","truck_number":"KA150323                         ","department_name":"Admin"},{"name":"Consignment Verification (SUNSHINE INDUSTRIES)","role":"stores","status":"completed","approver":"newuser","timestamp":"2025-07-17T09:35:54.883Z","comments":"Vehicle reached with comments: alsdkfjalsdk","action":"reached_with_comments","truck_number":"KA150323                         ","department_name":"Admin"},{"name":"Vehicle Exit (SUNSHINE INDUSTRIES)","role":"security","status":"completed","approver":"newuser","timestamp":"2025-07-17T09:35:58.245Z","comments":"Stage approved","action":"approve","truck_number":"KA150323                         ","department_name":"Admin"},{"name":"Vehicle Entry (POLYLAM INDUSTRIES)","role":"security","status":"completed","approver":"newuser","timestamp":"2025-07-17T09:36:00.590Z","comments":"Stage approved","action":"approve","truck_number":"KA150323                         ","department_name":"Admin"},{"name":"Consignment Verification (POLYLAM INDUSTRIES)","role":"stores","status":"completed","approver":"newuser","timestamp":"2025-07-17T09:36:07.131Z","comments":"Vehicle reached with comments: dafdsfads","action":"reached_with_comments","truck_number":"KA150323                         ","department_name":"Admin"},{"name":"Vehicle Exit (POLYLAM INDUSTRIES)","role":"security","status":"completed","approver":"newuser","timestamp":"2025-07-17T09:36:09.246Z","comments":"Stage approved","action":"approve","truck_number":"KA150323                         ","department_name":"Admin"}]</v>
       </c>
-      <c r="V6" t="str">
+      <c r="I6" t="str">
         <v>completed</v>
       </c>
-      <c r="W6" t="str">
+      <c r="J6" t="str">
+        <v/>
+      </c>
+      <c r="K6" t="str">
+        <v>500000</v>
+      </c>
+      <c r="L6" t="str">
+        <v>659</v>
+      </c>
+      <c r="M6" t="str">
+        <v>60</v>
+      </c>
+      <c r="N6" t="str">
         <v xml:space="preserve">KA150323                         </v>
       </c>
-      <c r="X6" t="str">
+      <c r="O6" t="str">
         <v>single</v>
       </c>
-      <c r="Y6" t="str">
+      <c r="P6" t="str">
         <v>SUNSHINE INDUSTRIES</v>
       </c>
-      <c r="Z6" t="str">
+      <c r="Q6" t="str">
         <v>POLYLAM INDUSTRIES</v>
-      </c>
-      <c r="AD6" t="str">
-        <v/>
-      </c>
-      <c r="AE6" t="str">
-        <v>500000</v>
-      </c>
-      <c r="AF6" t="str">
-        <v>659</v>
-      </c>
-      <c r="AG6" t="str">
-        <v>60</v>
       </c>
     </row>
     <row r="7">
@@ -1191,41 +1208,41 @@
       <c r="E7" t="str">
         <v>kg</v>
       </c>
-      <c r="S7">
+      <c r="F7">
         <v>9</v>
       </c>
-      <c r="T7" t="str">
+      <c r="G7" t="str">
         <v>2025-07-14T07:24:05.397Z</v>
       </c>
-      <c r="U7" t="str">
+      <c r="H7" t="str">
         <v>[{"name":"Order Approved","role":"admin","status":"completed","approver":"admin1","timestamp":"2025-07-16T12:24:29.550Z","comments":"Stage approved","action":"approve","truck_number":"KA06AA3457                   ","department_name":"Admin"},{"name":"Vehicle Entry Approved (Reliance Industries limited(Nelamangala))","role":"security","status":"completed","approver":"admin1","timestamp":"2025-07-16T12:24:34.165Z","comments":"Stage approved","action":"approve","truck_number":"KA06AA3457                   ","department_name":"Admin"},{"name":"Consignment Verification (Reliance Industries limited(Nelamangala))","role":"stores","status":"completed","approver":"admin1","timestamp":"2025-07-16T12:24:38.223Z","comments":"Vehicle reached with comments: adsfads","action":"reached_with_comments","truck_number":"KA06AA3457                   ","department_name":"Admin"},{"name":"Vehicle Exit (Reliance Industries limited(Nelamangala))","role":"security","status":"completed","approver":"admin1","timestamp":"2025-07-16T12:24:40.091Z","comments":"Stage approved","action":"approve","truck_number":"KA06AA3457                   ","department_name":"Admin"},{"name":"Vehicle Entry (SUNSHINE INDUSTRIES)","role":"security","status":"completed","approver":"admin1","timestamp":"2025-07-16T12:24:42.026Z","comments":"Stage approved","action":"approve","truck_number":"KA06AA3457                   ","department_name":"Admin"},{"name":"Consignment Verification (SUNSHINE INDUSTRIES)","role":"stores","status":"completed","approver":"admin1","timestamp":"2025-07-16T12:24:47.414Z","comments":"Vehicle reached with comments: asdfadsds","action":"reached_with_comments","truck_number":"KA06AA3457                   ","department_name":"Admin"},{"name":"Vehicle Exit (SUNSHINE INDUSTRIES)","role":"security","status":"completed","approver":"admin1","timestamp":"2025-07-16T12:24:49.522Z","comments":"Stage approved","action":"approve","truck_number":"KA06AA3457                   ","department_name":"Admin"}]</v>
       </c>
-      <c r="V7" t="str">
+      <c r="I7" t="str">
         <v>completed</v>
       </c>
-      <c r="W7" t="str">
+      <c r="J7" t="str">
+        <v/>
+      </c>
+      <c r="K7" t="str">
+        <v>787667</v>
+      </c>
+      <c r="L7" t="str">
+        <v>678</v>
+      </c>
+      <c r="M7" t="str">
+        <v>66</v>
+      </c>
+      <c r="N7" t="str">
         <v xml:space="preserve">KA06AA3457                   </v>
       </c>
-      <c r="X7" t="str">
+      <c r="O7" t="str">
         <v>single</v>
       </c>
-      <c r="Y7" t="str">
+      <c r="P7" t="str">
         <v>Reliance Industries limited(Nelamangala)</v>
       </c>
-      <c r="Z7" t="str">
+      <c r="Q7" t="str">
         <v>SUNSHINE INDUSTRIES</v>
-      </c>
-      <c r="AD7" t="str">
-        <v/>
-      </c>
-      <c r="AE7" t="str">
-        <v>787667</v>
-      </c>
-      <c r="AF7" t="str">
-        <v>678</v>
-      </c>
-      <c r="AG7" t="str">
-        <v>66</v>
       </c>
     </row>
     <row r="8">
@@ -1244,41 +1261,41 @@
       <c r="E8" t="str">
         <v>kg</v>
       </c>
-      <c r="S8">
+      <c r="F8">
         <v>9</v>
       </c>
-      <c r="T8" t="str">
+      <c r="G8" t="str">
         <v>2025-07-14T07:51:32.395Z</v>
       </c>
-      <c r="U8" t="str">
+      <c r="H8" t="str">
         <v>[{"name":"Order Approved","role":"admin","status":"completed","approver":"admin1","timestamp":"2025-07-19T06:05:55.393Z","comments":"Stage approved","action":"approve","truck_number":"KA06AA2206                   ","department_name":"Admin"},{"name":"Vehicle Entry Approved (POLYLAM INDUSTRIES)","role":"security","status":"completed","approver":"admin1","timestamp":"2025-07-19T06:06:28.325Z","comments":"Stage approved","action":"approve","truck_number":"KA06AA2206                   ","department_name":"Admin"},{"name":"Consignment Verification (POLYLAM INDUSTRIES)","role":"stores","status":"completed","approver":"admin1","timestamp":"2025-07-19T06:06:36.889Z","comments":"Vehicle reached with comments: test","action":"reached_with_comments","truck_number":"KA06AA2206                   ","department_name":"Admin"},{"name":"Vehicle Exit (POLYLAM INDUSTRIES)","role":"security","status":"completed","approver":"admin1","timestamp":"2025-07-19T06:06:40.932Z","comments":"Stage approved","action":"approve","truck_number":"KA06AA2206                   ","department_name":"Admin"},{"name":"Vehicle Entry (Reliance Industries limited(Nelamangala))","role":"security","status":"completed","approver":"admin1","timestamp":"2025-07-19T06:06:44.331Z","comments":"Stage approved","action":"approve","truck_number":"KA06AA2206                   ","department_name":"Admin"},{"name":"Consignment Verification (Reliance Industries limited(Nelamangala))","role":"stores","status":"completed","approver":"admin1","timestamp":"2025-07-19T06:06:53.129Z","comments":"Vehicle reached with comments: test1","action":"reached_with_comments","truck_number":"KA06AA2206                   ","department_name":"Admin"},{"name":"Vehicle Exit (Reliance Industries limited(Nelamangala))","role":"security","status":"completed","approver":"admin1","timestamp":"2025-07-19T06:06:58.581Z","comments":"Stage approved","action":"approve","truck_number":"KA06AA2206                   ","department_name":"Admin"}]</v>
       </c>
-      <c r="V8" t="str">
+      <c r="I8" t="str">
         <v>completed</v>
       </c>
-      <c r="W8" t="str">
+      <c r="J8" t="str">
+        <v/>
+      </c>
+      <c r="K8" t="str">
+        <v>2345</v>
+      </c>
+      <c r="L8" t="str">
+        <v>43</v>
+      </c>
+      <c r="M8" t="str">
+        <v>456</v>
+      </c>
+      <c r="N8" t="str">
         <v xml:space="preserve">KA06AA2206                   </v>
       </c>
-      <c r="X8" t="str">
+      <c r="O8" t="str">
         <v>single</v>
       </c>
-      <c r="Y8" t="str">
+      <c r="P8" t="str">
         <v>POLYLAM INDUSTRIES</v>
       </c>
-      <c r="Z8" t="str">
+      <c r="Q8" t="str">
         <v>Reliance Industries limited(Nelamangala)</v>
-      </c>
-      <c r="AD8" t="str">
-        <v/>
-      </c>
-      <c r="AE8" t="str">
-        <v>2345</v>
-      </c>
-      <c r="AF8" t="str">
-        <v>43</v>
-      </c>
-      <c r="AG8" t="str">
-        <v>456</v>
       </c>
     </row>
     <row r="9" xml:space="preserve">
@@ -1298,41 +1315,41 @@
       <c r="E9" t="str">
         <v>kg</v>
       </c>
-      <c r="S9">
+      <c r="F9">
         <v>9</v>
       </c>
-      <c r="T9" t="str">
+      <c r="G9" t="str">
         <v>2025-07-14T08:10:41.505Z</v>
       </c>
-      <c r="U9" t="str">
+      <c r="H9" t="str">
         <v>[{"name":"Order Approved","role":"admin","status":"completed","approver":"admin1","timestamp":"2025-07-14T08:10:54.018Z","comments":"Stage approved","action":"approve","truck_number":"KA01 EF 1234"},{"name":"Vehicle Entry Approved (INNOVA Polypack)","role":"security","status":"completed","approver":"admin1","timestamp":"2025-07-14T08:11:01.118Z","comments":"Stage approved","action":"approve","truck_number":"KA01 EF 1234"},{"name":"Consignment Verification (INNOVA Polypack)","role":"stores","status":"completed","approver":"admin1","timestamp":"2025-07-14T08:11:31.281Z","comments":"Vehicle reached with comments: order spec accurate","action":"reached_with_comments","truck_number":"KA01 EF 1234"},{"name":"Vehicle Exit (INNOVA Polypack)","role":"security","status":"completed","approver":"admin1","timestamp":"2025-07-14T08:11:37.531Z","comments":"Stage approved","action":"approve","truck_number":"KA01 EF 1234"},{"name":"Vehicle Entry (Rotech enginering)","role":"security","status":"completed","approver":"admin1","timestamp":"2025-07-14T08:11:39.400Z","comments":"Stage approved","action":"approve","truck_number":"KA01 EF 1234"},{"name":"Consignment Verification (Rotech enginering)","role":"stores","status":"completed","approver":"admin1","timestamp":"2025-07-14T08:12:19.194Z","comments":"Vehicle reached with comments: now it is fine","action":"reached_with_comments","truck_number":"KA01 EF 1234"},{"name":"Vehicle Exit (Rotech enginering)","role":"security","status":"completed","approver":"admin1","timestamp":"2025-07-14T08:12:22.097Z","comments":"Stage approved","action":"approve","truck_number":"KA01 EF 1234"}]</v>
       </c>
-      <c r="V9" t="str">
+      <c r="I9" t="str">
         <v>completed</v>
       </c>
-      <c r="W9" t="str">
+      <c r="J9" t="str">
+        <v/>
+      </c>
+      <c r="K9" t="str">
+        <v>20000</v>
+      </c>
+      <c r="L9" t="str">
+        <v>560</v>
+      </c>
+      <c r="M9" t="str">
+        <v>983</v>
+      </c>
+      <c r="N9" t="str">
         <v>KA01 EF 1234</v>
       </c>
-      <c r="X9" t="str">
+      <c r="O9" t="str">
         <v>single</v>
       </c>
-      <c r="Y9" t="str">
+      <c r="P9" t="str">
         <v>INNOVA Polypack</v>
       </c>
-      <c r="Z9" t="str">
+      <c r="Q9" t="str">
         <v>Rotech enginering</v>
-      </c>
-      <c r="AD9" t="str">
-        <v/>
-      </c>
-      <c r="AE9" t="str">
-        <v>20000</v>
-      </c>
-      <c r="AF9" t="str">
-        <v>560</v>
-      </c>
-      <c r="AG9" t="str">
-        <v>983</v>
       </c>
     </row>
     <row r="10">
@@ -1351,41 +1368,41 @@
       <c r="E10" t="str">
         <v>kg</v>
       </c>
-      <c r="S10">
+      <c r="F10">
         <v>9</v>
       </c>
-      <c r="T10" t="str">
+      <c r="G10" t="str">
         <v>2025-07-14T08:48:45.101Z</v>
       </c>
-      <c r="U10" t="str">
+      <c r="H10" t="str">
         <v>[{"name":"Order Approved","role":"admin","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA04A7642                      "},{"name":"Vehicle Entry Approved (POLYLAM INDUSTRIES)","role":"security","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA04A7642                      "},{"name":"Consignment Verification (POLYLAM INDUSTRIES)","role":"stores","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA04A7642                      "},{"name":"Vehicle Exit (POLYLAM INDUSTRIES)","role":"security","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA04A7642                      "},{"name":"Vehicle Entry (Rotech enginering)","role":"security","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA04A7642                      "},{"name":"Consignment Verification (Rotech enginering)","role":"stores","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA04A7642                      "},{"name":"Vehicle Exit (Rotech enginering)","role":"security","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA04A7642                      "}]</v>
       </c>
-      <c r="V10" t="str">
+      <c r="I10" t="str">
         <v>open</v>
       </c>
-      <c r="W10" t="str">
+      <c r="J10" t="str">
+        <v/>
+      </c>
+      <c r="K10" t="str">
+        <v>4568</v>
+      </c>
+      <c r="L10" t="str">
+        <v>54</v>
+      </c>
+      <c r="M10" t="str">
+        <v>34</v>
+      </c>
+      <c r="N10" t="str">
         <v xml:space="preserve">KA04A7642                      </v>
       </c>
-      <c r="X10" t="str">
+      <c r="O10" t="str">
         <v>single</v>
       </c>
-      <c r="Y10" t="str">
+      <c r="P10" t="str">
         <v>POLYLAM INDUSTRIES</v>
       </c>
-      <c r="Z10" t="str">
+      <c r="Q10" t="str">
         <v>Rotech enginering</v>
-      </c>
-      <c r="AD10" t="str">
-        <v/>
-      </c>
-      <c r="AE10" t="str">
-        <v>4568</v>
-      </c>
-      <c r="AF10" t="str">
-        <v>54</v>
-      </c>
-      <c r="AG10" t="str">
-        <v>34</v>
       </c>
     </row>
     <row r="11">
@@ -1404,41 +1421,41 @@
       <c r="E11" t="str">
         <v>kg</v>
       </c>
-      <c r="S11">
+      <c r="F11">
         <v>9</v>
       </c>
-      <c r="T11" t="str">
+      <c r="G11" t="str">
         <v>2025-07-14T08:57:45.395Z</v>
       </c>
-      <c r="U11" t="str">
+      <c r="H11" t="str">
         <v>[{"name":"Order Approved","role":"admin","status":"completed","approver":"admin1","timestamp":"2025-07-14T08:58:03.504Z","comments":"Stage approved","action":"approve","truck_number":"KA10AB0000"},{"name":"Vehicle Entry Approved (ABINANDAN PETRO PACK PVT LTD)","role":"security","status":"completed","approver":"admin1","timestamp":"2025-07-14T08:58:04.956Z","comments":"Stage approved","action":"approve","truck_number":"KA10AB0000"},{"name":"Consignment Verification (ABINANDAN PETRO PACK PVT LTD)","role":"stores","status":"completed","approver":"admin1","timestamp":"2025-07-14T08:58:15.317Z","comments":"Vehicle reached with comments: Good","action":"reached_with_comments","truck_number":"KA10AB0000"},{"name":"Vehicle Exit (ABINANDAN PETRO PACK PVT LTD)","role":"security","status":"completed","approver":"admin1","timestamp":"2025-07-14T08:58:19.264Z","comments":"Stage approved","action":"approve","truck_number":"KA10AB0000"},{"name":"Vehicle Entry (GOTAWAT INDUSTRIES)","role":"security","status":"completed","approver":"admin1","timestamp":"2025-07-14T08:58:21.730Z","comments":"Stage approved","action":"approve","truck_number":"KA10AB0000"},{"name":"Consignment Verification (GOTAWAT INDUSTRIES)","role":"stores","status":"completed","approver":"admin1","timestamp":"2025-07-14T08:58:26.410Z","comments":"Vehicle reached with comments: asdfads","action":"reached_with_comments","truck_number":"KA10AB0000"},{"name":"Vehicle Exit (GOTAWAT INDUSTRIES)","role":"security","status":"completed","approver":"admin1","timestamp":"2025-07-14T09:02:45.546Z","comments":"Stage approved","action":"approve","truck_number":"KA10AB0000","department_name":"Admin"},{"name":"Order Approved","role":"admin","status":"completed","approver":"admin1","timestamp":"2025-07-14T09:02:52.774Z","comments":"Stage approved","action":"approve","truck_number":"KA10AB0000","department_name":"Admin"},{"name":"Vehicle Entry Approved (GOTAWAT INDUSTRIES)","role":"security","status":"completed","approver":"admin1","timestamp":"2025-07-14T09:03:13.072Z","comments":"Stage approved","action":"approve","truck_number":"KA10AB0000","department_name":"Admin"},{"name":"Consignment Verification (GOTAWAT INDUSTRIES)","role":"stores","status":"rejected","approver":"admin1","timestamp":"2025-07-14T09:03:22.996Z","comments":"Stage rejected. no full consignments","action":"reject","truck_number":"KA10AB0000","department_name":"Admin"},{"name":"Vehicle Exit (GOTAWAT INDUSTRIES)","role":"security","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA10AB0000"},{"name":"Vehicle Entry (ABINANDAN PETRO PACK PVT LTD)","role":"security","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA10AB0000"},{"name":"Consignment Verification (ABINANDAN PETRO PACK PVT LTD)","role":"stores","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA10AB0000"},{"name":"Vehicle Exit (ABINANDAN PETRO PACK PVT LTD)","role":"security","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA10AB0000"},{"name":"Order Approved","role":"admin","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA10AB0000"},{"name":"Vehicle Entry Approved (ABINANDAN PETRO PACK PVT LTD)","role":"security","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA10AB0000"},{"name":"Consignment Verification (ABINANDAN PETRO PACK PVT LTD)","role":"stores","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA10AB0000"},{"name":"Vehicle Exit (ABINANDAN PETRO PACK PVT LTD)","role":"security","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA10AB0000"},{"name":"Vehicle Entry (Rotech enginering)","role":"security","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA10AB0000"},{"name":"Consignment Verification (Rotech enginering)","role":"stores","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA10AB0000"},{"name":"Vehicle Exit (Rotech enginering)","role":"security","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA10AB0000"}]</v>
       </c>
-      <c r="V11" t="str">
+      <c r="I11" t="str">
         <v>rejected</v>
       </c>
-      <c r="W11" t="str">
+      <c r="J11" t="str">
+        <v/>
+      </c>
+      <c r="K11" t="str">
+        <v>234</v>
+      </c>
+      <c r="L11" t="str">
+        <v>34</v>
+      </c>
+      <c r="M11" t="str">
+        <v>43</v>
+      </c>
+      <c r="N11" t="str">
         <v>KA10AB0000</v>
       </c>
-      <c r="X11" t="str">
+      <c r="O11" t="str">
         <v>multiple</v>
       </c>
-      <c r="Y11" t="str">
+      <c r="P11" t="str">
         <v>ABINANDAN PETRO PACK PVT LTD</v>
       </c>
-      <c r="Z11" t="str">
+      <c r="Q11" t="str">
         <v>GOTAWAT INDUSTRIES,ABINANDAN PETRO PACK PVT LTD,Rotech enginering</v>
-      </c>
-      <c r="AD11" t="str">
-        <v/>
-      </c>
-      <c r="AE11" t="str">
-        <v>234</v>
-      </c>
-      <c r="AF11" t="str">
-        <v>34</v>
-      </c>
-      <c r="AG11" t="str">
-        <v>43</v>
       </c>
     </row>
     <row r="12">
@@ -1457,41 +1474,41 @@
       <c r="E12" t="str">
         <v>kg</v>
       </c>
-      <c r="S12">
+      <c r="F12">
         <v>9</v>
       </c>
-      <c r="T12" t="str">
+      <c r="G12" t="str">
         <v>2025-07-14T09:53:56.404Z</v>
       </c>
-      <c r="U12" t="str">
+      <c r="H12" t="str">
         <v>[{"name":"Order Approved","role":"admin","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA16D0697                      "},{"name":"Vehicle Entry Approved (CHAKRAPANI VYAPAR PRIVATE LIMITED)","role":"security","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA16D0697                      "},{"name":"Consignment Verification (CHAKRAPANI VYAPAR PRIVATE LIMITED)","role":"stores","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA16D0697                      "},{"name":"Vehicle Exit (CHAKRAPANI VYAPAR PRIVATE LIMITED)","role":"security","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA16D0697                      "},{"name":"Vehicle Entry (ABHAY PACKAGING)","role":"security","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA16D0697                      "},{"name":"Consignment Verification (ABHAY PACKAGING)","role":"stores","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA16D0697                      "},{"name":"Vehicle Exit (ABHAY PACKAGING)","role":"security","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA16D0697                      "}]</v>
       </c>
-      <c r="V12" t="str">
+      <c r="I12" t="str">
         <v>open</v>
       </c>
-      <c r="W12" t="str">
+      <c r="J12" t="str">
+        <v/>
+      </c>
+      <c r="K12" t="str">
+        <v>23245</v>
+      </c>
+      <c r="L12" t="str">
+        <v>344</v>
+      </c>
+      <c r="M12" t="str">
+        <v>34</v>
+      </c>
+      <c r="N12" t="str">
         <v xml:space="preserve">KA16D0697                      </v>
       </c>
-      <c r="X12" t="str">
+      <c r="O12" t="str">
         <v>single</v>
       </c>
-      <c r="Y12" t="str">
+      <c r="P12" t="str">
         <v>CHAKRAPANI VYAPAR PRIVATE LIMITED</v>
       </c>
-      <c r="Z12" t="str">
+      <c r="Q12" t="str">
         <v>ABHAY PACKAGING</v>
-      </c>
-      <c r="AD12" t="str">
-        <v/>
-      </c>
-      <c r="AE12" t="str">
-        <v>23245</v>
-      </c>
-      <c r="AF12" t="str">
-        <v>344</v>
-      </c>
-      <c r="AG12" t="str">
-        <v>34</v>
       </c>
     </row>
     <row r="13">
@@ -1510,41 +1527,41 @@
       <c r="E13" t="str">
         <v>kg</v>
       </c>
-      <c r="S13">
+      <c r="F13">
         <v>9</v>
       </c>
-      <c r="T13" t="str">
+      <c r="G13" t="str">
         <v>2025-07-14T10:03:13.878Z</v>
       </c>
-      <c r="U13" t="str">
+      <c r="H13" t="str">
         <v>[{"name":"Order Approved","role":"admin","status":"completed","approver":"admin1","timestamp":"2025-07-14T10:03:20.402Z","comments":"Stage approved","action":"approve","truck_number":"KA01TT1000","department_name":"Admin"},{"name":"Vehicle Entry Approved (KAMAL TAPES)","role":"security","status":"completed","approver":"admin1","timestamp":"2025-07-14T10:03:23.254Z","comments":"Stage approved","action":"approve","truck_number":"KA01TT1000","department_name":"Admin"},{"name":"Consignment Verification (KAMAL TAPES)","role":"stores","status":"completed","approver":"admin1","timestamp":"2025-07-14T10:03:29.819Z","comments":"Vehicle reached with comments: done","action":"reached_with_comments","truck_number":"KA01TT1000","department_name":"Admin"},{"name":"Vehicle Exit (KAMAL TAPES)","role":"security","status":"completed","approver":"admin1","timestamp":"2025-07-15T02:22:34.464Z","comments":"Stage approved","action":"approve","truck_number":"KA01TT1000","department_name":"Admin"},{"name":"Vehicle Entry (CHAKRAPANI VYAPAR PRIVATE LIMITED)","role":"security","status":"completed","approver":"admin1","timestamp":"2025-07-15T02:22:46.359Z","comments":"Stage approved","action":"approve","truck_number":"KA01TT1000","department_name":"Admin"},{"name":"Consignment Verification (CHAKRAPANI VYAPAR PRIVATE LIMITED)","role":"stores","status":"completed","approver":"admin1","timestamp":"2025-07-15T13:13:04.445Z","comments":"Vehicle reached with comments: flsdkfjldsk","action":"reached_with_comments","truck_number":"KA01TT1000","department_name":"Admin"},{"name":"Vehicle Exit (CHAKRAPANI VYAPAR PRIVATE LIMITED)","role":"security","status":"completed","approver":"admin1","timestamp":"2025-07-15T13:13:06.201Z","comments":"Stage approved","action":"approve","truck_number":"KA01TT1000","department_name":"Admin"}]</v>
       </c>
-      <c r="V13" t="str">
+      <c r="I13" t="str">
         <v>completed</v>
       </c>
-      <c r="W13" t="str">
+      <c r="J13" t="str">
+        <v/>
+      </c>
+      <c r="K13" t="str">
+        <v>2344</v>
+      </c>
+      <c r="L13" t="str">
+        <v>34</v>
+      </c>
+      <c r="M13" t="str">
+        <v>34</v>
+      </c>
+      <c r="N13" t="str">
         <v>KA01TT1000</v>
       </c>
-      <c r="X13" t="str">
+      <c r="O13" t="str">
         <v>single</v>
       </c>
-      <c r="Y13" t="str">
+      <c r="P13" t="str">
         <v>KAMAL TAPES</v>
       </c>
-      <c r="Z13" t="str">
+      <c r="Q13" t="str">
         <v>CHAKRAPANI VYAPAR PRIVATE LIMITED</v>
-      </c>
-      <c r="AD13" t="str">
-        <v/>
-      </c>
-      <c r="AE13" t="str">
-        <v>2344</v>
-      </c>
-      <c r="AF13" t="str">
-        <v>34</v>
-      </c>
-      <c r="AG13" t="str">
-        <v>34</v>
       </c>
     </row>
     <row r="14">
@@ -1563,47 +1580,47 @@
       <c r="E14" t="str">
         <v>Kilograms</v>
       </c>
-      <c r="F14" t="str">
+      <c r="F14">
+        <v>9</v>
+      </c>
+      <c r="G14" t="str">
+        <v>2025-07-15T12:27:40.633Z</v>
+      </c>
+      <c r="H14" t="str">
+        <v>[{"name":"Order Approved","role":"admin","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA28B7371                      "},{"name":"Vehicle Entry Approved (INNOVA Polypack)","role":"security","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA28B7371                      "},{"name":"Consignment Verification (INNOVA Polypack)","role":"stores","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA28B7371                      "},{"name":"Vehicle Exit (INNOVA Polypack)","role":"security","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA28B7371                      "},{"name":"Vehicle Entry (Rotech enginering)","role":"security","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA28B7371                      "},{"name":"Consignment Verification (Rotech enginering)","role":"stores","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA28B7371                      "},{"name":"Vehicle Exit (Rotech enginering)","role":"security","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA28B7371                      "}]</v>
+      </c>
+      <c r="I14" t="str">
+        <v>open</v>
+      </c>
+      <c r="J14" t="str">
+        <v/>
+      </c>
+      <c r="N14" t="str">
+        <v xml:space="preserve">KA28B7371                      </v>
+      </c>
+      <c r="O14" t="str">
+        <v>single</v>
+      </c>
+      <c r="P14" t="str">
+        <v>INNOVA Polypack</v>
+      </c>
+      <c r="Q14" t="str">
+        <v>Rotech enginering</v>
+      </c>
+      <c r="R14" t="str">
         <v>8000</v>
       </c>
-      <c r="G14" t="str">
+      <c r="S14" t="str">
         <v>200.00</v>
       </c>
-      <c r="H14" t="str">
+      <c r="T14" t="str">
         <v>200.00</v>
       </c>
-      <c r="S14">
-        <v>9</v>
-      </c>
-      <c r="T14" t="str">
-        <v>2025-07-15T12:27:40.633Z</v>
-      </c>
       <c r="U14" t="str">
-        <v>[{"name":"Order Approved","role":"admin","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA28B7371                      "},{"name":"Vehicle Entry Approved (INNOVA Polypack)","role":"security","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA28B7371                      "},{"name":"Consignment Verification (INNOVA Polypack)","role":"stores","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA28B7371                      "},{"name":"Vehicle Exit (INNOVA Polypack)","role":"security","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA28B7371                      "},{"name":"Vehicle Entry (Rotech enginering)","role":"security","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA28B7371                      "},{"name":"Consignment Verification (Rotech enginering)","role":"stores","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA28B7371                      "},{"name":"Vehicle Exit (Rotech enginering)","role":"security","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA28B7371                      "}]</v>
-      </c>
-      <c r="V14" t="str">
-        <v>open</v>
-      </c>
-      <c r="W14" t="str">
-        <v xml:space="preserve">KA28B7371                      </v>
-      </c>
-      <c r="X14" t="str">
-        <v>single</v>
-      </c>
-      <c r="Y14" t="str">
-        <v>INNOVA Polypack</v>
-      </c>
-      <c r="Z14" t="str">
-        <v>Rotech enginering</v>
-      </c>
-      <c r="AB14" t="str">
         <v>hours</v>
       </c>
-      <c r="AC14">
+      <c r="V14">
         <v>4</v>
-      </c>
-      <c r="AD14" t="str">
-        <v/>
       </c>
     </row>
     <row r="15">
@@ -1622,47 +1639,47 @@
       <c r="E15" t="str">
         <v>Number of items</v>
       </c>
-      <c r="F15" t="str">
+      <c r="F15">
+        <v>9</v>
+      </c>
+      <c r="G15" t="str">
+        <v>2025-07-15T12:29:24.796Z</v>
+      </c>
+      <c r="H15" t="str">
+        <v>[{"name":"Order Approved","role":"admin","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA01AL8433                    "},{"name":"Vehicle Entry Approved (ABINANDAN PETRO PACK PVT LTD)","role":"security","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA01AL8433                    "},{"name":"Consignment Verification (ABINANDAN PETRO PACK PVT LTD)","role":"stores","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA01AL8433                    "},{"name":"Vehicle Exit (ABINANDAN PETRO PACK PVT LTD)","role":"security","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA01AL8433                    "},{"name":"Vehicle Entry (POLYLAM INDUSTRIES)","role":"security","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA01AL8433                    "},{"name":"Consignment Verification (POLYLAM INDUSTRIES)","role":"stores","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA01AL8433                    "},{"name":"Vehicle Exit (POLYLAM INDUSTRIES)","role":"security","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA01AL8433                    "}]</v>
+      </c>
+      <c r="I15" t="str">
+        <v>open</v>
+      </c>
+      <c r="J15" t="str">
+        <v/>
+      </c>
+      <c r="N15" t="str">
+        <v xml:space="preserve">KA01AL8433                    </v>
+      </c>
+      <c r="O15" t="str">
+        <v>single</v>
+      </c>
+      <c r="P15" t="str">
+        <v>ABINANDAN PETRO PACK PVT LTD</v>
+      </c>
+      <c r="Q15" t="str">
+        <v>POLYLAM INDUSTRIES</v>
+      </c>
+      <c r="R15" t="str">
         <v>10000</v>
       </c>
-      <c r="G15" t="str">
+      <c r="S15" t="str">
         <v>250.00</v>
       </c>
-      <c r="H15" t="str">
+      <c r="T15" t="str">
         <v>250.00</v>
       </c>
-      <c r="S15">
-        <v>9</v>
-      </c>
-      <c r="T15" t="str">
-        <v>2025-07-15T12:29:24.796Z</v>
-      </c>
       <c r="U15" t="str">
-        <v>[{"name":"Order Approved","role":"admin","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA01AL8433                    "},{"name":"Vehicle Entry Approved (ABINANDAN PETRO PACK PVT LTD)","role":"security","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA01AL8433                    "},{"name":"Consignment Verification (ABINANDAN PETRO PACK PVT LTD)","role":"stores","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA01AL8433                    "},{"name":"Vehicle Exit (ABINANDAN PETRO PACK PVT LTD)","role":"security","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA01AL8433                    "},{"name":"Vehicle Entry (POLYLAM INDUSTRIES)","role":"security","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA01AL8433                    "},{"name":"Consignment Verification (POLYLAM INDUSTRIES)","role":"stores","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA01AL8433                    "},{"name":"Vehicle Exit (POLYLAM INDUSTRIES)","role":"security","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA01AL8433                    "}]</v>
-      </c>
-      <c r="V15" t="str">
-        <v>open</v>
-      </c>
-      <c r="W15" t="str">
-        <v xml:space="preserve">KA01AL8433                    </v>
-      </c>
-      <c r="X15" t="str">
-        <v>single</v>
-      </c>
-      <c r="Y15" t="str">
-        <v>ABINANDAN PETRO PACK PVT LTD</v>
-      </c>
-      <c r="Z15" t="str">
-        <v>POLYLAM INDUSTRIES</v>
-      </c>
-      <c r="AB15" t="str">
         <v>hours</v>
       </c>
-      <c r="AC15">
+      <c r="V15">
         <v>8</v>
-      </c>
-      <c r="AD15" t="str">
-        <v/>
       </c>
     </row>
     <row r="16">
@@ -1681,77 +1698,77 @@
       <c r="E16" t="str">
         <v>Kilograms</v>
       </c>
-      <c r="F16" t="str">
+      <c r="F16">
+        <v>9</v>
+      </c>
+      <c r="G16" t="str">
+        <v>2025-07-16T10:15:21.047Z</v>
+      </c>
+      <c r="H16" t="str">
+        <v>[{"name":"Order Approved","role":"admin","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA03EF8000"},{"name":"Vehicle Entry Approved (CHAKRAPANI VYAPAR PRIVATE LIMITED)","role":"security","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA03EF8000"},{"name":"Consignment Verification (CHAKRAPANI VYAPAR PRIVATE LIMITED)","role":"stores","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA03EF8000"},{"name":"Vehicle Exit (CHAKRAPANI VYAPAR PRIVATE LIMITED)","role":"security","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA03EF8000"},{"name":"Vehicle Entry (Soliflex Packaging-1)","role":"security","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA03EF8000"},{"name":"Consignment Verification (Soliflex Packaging-1)","role":"stores","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA03EF8000"},{"name":"Vehicle Exit (Soliflex Packaging-1)","role":"security","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA03EF8000"}]</v>
+      </c>
+      <c r="I16" t="str">
+        <v>open</v>
+      </c>
+      <c r="N16" t="str">
+        <v>KA03EF8000</v>
+      </c>
+      <c r="O16" t="str">
+        <v>single</v>
+      </c>
+      <c r="P16" t="str">
+        <v>CHAKRAPANI VYAPAR PRIVATE LIMITED</v>
+      </c>
+      <c r="Q16" t="str">
+        <v>Soliflex Packaging-1</v>
+      </c>
+      <c r="R16" t="str">
         <v>60000</v>
       </c>
-      <c r="G16" t="str">
+      <c r="S16" t="str">
         <v>1500.00</v>
       </c>
-      <c r="H16" t="str">
+      <c r="T16" t="str">
         <v>1500.00</v>
       </c>
-      <c r="I16" t="str">
+      <c r="U16" t="str">
+        <v>hours</v>
+      </c>
+      <c r="V16">
+        <v>10</v>
+      </c>
+      <c r="W16" t="str">
         <v>35198</v>
       </c>
-      <c r="J16" t="str">
+      <c r="X16" t="str">
         <v>19</v>
       </c>
-      <c r="K16" t="str">
+      <c r="Y16" t="str">
         <v>&gt;6 MT</v>
       </c>
-      <c r="L16" t="str">
+      <c r="Z16" t="str">
         <v>500</v>
       </c>
-      <c r="M16" t="str">
+      <c r="AA16" t="str">
         <v>1</v>
       </c>
-      <c r="N16" t="str">
+      <c r="AB16" t="str">
         <v>100</v>
       </c>
-      <c r="O16" t="str">
+      <c r="AC16" t="str">
         <v>1500</v>
       </c>
-      <c r="P16" t="str">
+      <c r="AD16" t="str">
         <v>6900</v>
       </c>
-      <c r="Q16" t="str">
+      <c r="AE16" t="str">
         <v>10300.00</v>
       </c>
-      <c r="R16" t="str">
+      <c r="AF16" t="str">
         <v>49700.00</v>
       </c>
-      <c r="S16">
-        <v>9</v>
-      </c>
-      <c r="T16" t="str">
-        <v>2025-07-16T10:15:21.047Z</v>
-      </c>
-      <c r="U16" t="str">
-        <v>[{"name":"Order Approved","role":"admin","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA03EF8000"},{"name":"Vehicle Entry Approved (CHAKRAPANI VYAPAR PRIVATE LIMITED)","role":"security","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA03EF8000"},{"name":"Consignment Verification (CHAKRAPANI VYAPAR PRIVATE LIMITED)","role":"stores","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA03EF8000"},{"name":"Vehicle Exit (CHAKRAPANI VYAPAR PRIVATE LIMITED)","role":"security","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA03EF8000"},{"name":"Vehicle Entry (Soliflex Packaging-1)","role":"security","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA03EF8000"},{"name":"Consignment Verification (Soliflex Packaging-1)","role":"stores","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA03EF8000"},{"name":"Vehicle Exit (Soliflex Packaging-1)","role":"security","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA03EF8000"}]</v>
-      </c>
-      <c r="V16" t="str">
-        <v>open</v>
-      </c>
-      <c r="W16" t="str">
-        <v>KA03EF8000</v>
-      </c>
-      <c r="X16" t="str">
-        <v>single</v>
-      </c>
-      <c r="Y16" t="str">
-        <v>CHAKRAPANI VYAPAR PRIVATE LIMITED</v>
-      </c>
-      <c r="Z16" t="str">
-        <v>Soliflex Packaging-1</v>
-      </c>
-      <c r="AA16" t="str">
+      <c r="AG16" t="str">
         <v/>
-      </c>
-      <c r="AB16" t="str">
-        <v>hours</v>
-      </c>
-      <c r="AC16">
-        <v>10</v>
       </c>
     </row>
     <row r="17">
@@ -1770,74 +1787,74 @@
       <c r="E17" t="str">
         <v>Kilograms</v>
       </c>
-      <c r="F17" t="str">
+      <c r="F17">
+        <v>9</v>
+      </c>
+      <c r="G17" t="str">
+        <v>2025-07-16T11:30:34.312Z</v>
+      </c>
+      <c r="H17" t="str">
+        <v>[{"name":"Order Approved","role":"admin","status":"completed","approver":"newuser","timestamp":"2025-07-18T03:31:53.833Z","comments":"Stage approved","action":"approve","truck_number":"KA16D0727                      ","stage_id":1,"stage_sequence":1,"department_name":"Admin"},{"name":"Vehicle Entry Approved (POLYLAM INDUSTRIES)","role":"security","status":"completed","approver":"newuser","timestamp":"2025-07-18T03:31:56.166Z","comments":"Stage approved","action":"approve","truck_number":"KA16D0727                      ","stage_id":1,"stage_sequence":1,"department_name":"Admin"},{"name":"Consignment Verification (POLYLAM INDUSTRIES)","role":"stores","status":"completed","approver":"newuser","timestamp":"2025-07-18T03:32:08.395Z","comments":"Vehicle reached with comments: Good","action":"reached_with_comments","truck_number":"KA16D0727                      ","stage_id":1,"stage_sequence":1,"department_name":"Admin"},{"name":"Vehicle Exit (POLYLAM INDUSTRIES)","role":"security","status":"completed","approver":"newuser","timestamp":"2025-07-18T03:32:13.335Z","comments":"Stage approved","action":"approve","truck_number":"KA16D0727                      ","stage_id":1,"stage_sequence":1,"department_name":"Admin"},{"name":"Vehicle Entry (IndAutoFilters-1)","role":"security","status":"completed","approver":"newuser","timestamp":"2025-07-18T03:32:15.048Z","comments":"Stage approved","action":"approve","truck_number":"KA16D0727                      ","stage_id":1,"stage_sequence":1,"department_name":"Admin"},{"name":"Consignment Verification (IndAutoFilters-1)","role":"stores","status":"completed","approver":"newuser","timestamp":"2025-07-18T03:32:24.581Z","comments":"Vehicle reached with comments: Good","action":"reached_with_comments","truck_number":"KA16D0727                      ","stage_id":1,"stage_sequence":1,"department_name":"Admin"},{"name":"Vehicle Exit (IndAutoFilters-1)","role":"security","status":"completed","approver":"newuser","timestamp":"2025-07-18T03:32:27.714Z","comments":"Stage approved","action":"approve","truck_number":"KA16D0727                      ","stage_id":1,"stage_sequence":1,"department_name":"Admin"},{"name":"Order Approved","role":"admin","status":"completed","approver":"newuser","timestamp":"2025-07-18T03:32:33.053Z","comments":"Stage approved","action":"approve","truck_number":"KA16D0727                      ","stage_id":2,"stage_sequence":2,"department_name":"Admin"},{"name":"Vehicle Entry Approved (CHAKRAPANI VYAPAR PRIVATE LIMITED)","role":"security","status":"completed","approver":"newuser","timestamp":"2025-07-18T03:32:34.862Z","comments":"Stage approved","action":"approve","truck_number":"KA16D0727                      ","stage_id":2,"stage_sequence":2,"department_name":"Admin"},{"name":"Consignment Verification (CHAKRAPANI VYAPAR PRIVATE LIMITED)","role":"stores","status":"completed","approver":"newuser","timestamp":"2025-07-18T03:32:41.427Z","comments":"Vehicle reached with comments: good","action":"reached_with_comments","truck_number":"KA16D0727                      ","stage_id":2,"stage_sequence":2,"department_name":"Admin"},{"name":"Vehicle Exit (CHAKRAPANI VYAPAR PRIVATE LIMITED)","role":"security","status":"completed","approver":"newuser","timestamp":"2025-07-18T03:32:44.034Z","comments":"Stage approved","action":"approve","truck_number":"KA16D0727                      ","stage_id":2,"stage_sequence":2,"department_name":"Admin"},{"name":"Vehicle Entry (IndAutoFilters-4)","role":"security","status":"completed","approver":"newuser","timestamp":"2025-07-18T03:32:46.129Z","comments":"Stage approved","action":"approve","truck_number":"KA16D0727                      ","stage_id":2,"stage_sequence":2,"department_name":"Admin"},{"name":"Consignment Verification (IndAutoFilters-4)","role":"stores","status":"completed","approver":"newuser","timestamp":"2025-07-18T03:32:57.001Z","comments":"Vehicle reached with comments: Best","action":"reached_with_comments","truck_number":"KA16D0727                      ","stage_id":2,"stage_sequence":2,"department_name":"Admin"},{"name":"Vehicle Exit (IndAutoFilters-4)","role":"security","status":"completed","approver":"newuser","timestamp":"2025-07-18T03:32:59.331Z","comments":"Stage approved","action":"approve","truck_number":"KA16D0727                      ","stage_id":2,"stage_sequence":2,"department_name":"Admin"},{"name":"Order Approved","role":"admin","status":"completed","approver":"newuser","timestamp":"2025-07-18T03:33:01.512Z","comments":"Stage approved","action":"approve","truck_number":"KA16D0727                      ","stage_id":3,"stage_sequence":3,"department_name":"Admin"},{"name":"Vehicle Entry Approved (CHAKRAPANI VYAPAR PRIVATE LIMITED)","role":"security","status":"completed","approver":"newuser","timestamp":"2025-07-18T03:33:04.517Z","comments":"Stage approved","action":"approve","truck_number":"KA16D0727                      ","stage_id":3,"stage_sequence":3,"department_name":"Admin"},{"name":"Consignment Verification (CHAKRAPANI VYAPAR PRIVATE LIMITED)","role":"stores","status":"completed","approver":"newuser","timestamp":"2025-07-18T03:33:10.718Z","comments":"Vehicle reached with comments: best","action":"reached_with_comments","truck_number":"KA16D0727                      ","stage_id":3,"stage_sequence":3,"department_name":"Admin"},{"name":"Vehicle Exit (CHAKRAPANI VYAPAR PRIVATE LIMITED)","role":"security","status":"completed","approver":"newuser","timestamp":"2025-07-18T03:33:13.415Z","comments":"Stage approved","action":"approve","truck_number":"KA16D0727                      ","stage_id":3,"stage_sequence":3,"department_name":"Admin"},{"name":"Vehicle Entry (Soliflex Packaging-3)","role":"security","status":"completed","approver":"newuser","timestamp":"2025-07-18T03:33:15.016Z","comments":"Stage approved","action":"approve","truck_number":"KA16D0727                      ","stage_id":3,"stage_sequence":3,"department_name":"Admin"},{"name":"Consignment Verification (Soliflex Packaging-3)","role":"stores","status":"completed","approver":"newuser","timestamp":"2025-07-18T03:33:20.169Z","comments":"Vehicle reached with comments: best","action":"reached_with_comments","truck_number":"KA16D0727                      ","stage_id":3,"stage_sequence":3,"department_name":"Admin"},{"name":"Vehicle Exit (Soliflex Packaging-3)","role":"security","status":"completed","approver":"newuser","timestamp":"2025-07-18T03:33:23.433Z","comments":"Stage approved","action":"approve","truck_number":"KA16D0727                      ","stage_id":3,"stage_sequence":3,"department_name":"Admin"}]</v>
+      </c>
+      <c r="I17" t="str">
+        <v>completed</v>
+      </c>
+      <c r="N17" t="str">
+        <v xml:space="preserve">KA16D0727                      </v>
+      </c>
+      <c r="O17" t="str">
+        <v>multiple</v>
+      </c>
+      <c r="Q17" t="str">
+        <v/>
+      </c>
+      <c r="R17" t="str">
         <v>90000</v>
       </c>
-      <c r="G17" t="str">
+      <c r="S17" t="str">
         <v>2250.00</v>
       </c>
-      <c r="H17" t="str">
+      <c r="T17" t="str">
         <v>2250.00</v>
       </c>
-      <c r="I17" t="str">
+      <c r="U17" t="str">
+        <v>days</v>
+      </c>
+      <c r="V17">
+        <v>4</v>
+      </c>
+      <c r="W17" t="str">
         <v>5768</v>
       </c>
-      <c r="J17" t="str">
+      <c r="X17" t="str">
         <v>80</v>
       </c>
-      <c r="K17" t="str">
+      <c r="Y17" t="str">
         <v>&gt;6 MT</v>
       </c>
-      <c r="L17" t="str">
+      <c r="Z17" t="str">
         <v>500</v>
       </c>
-      <c r="M17" t="str">
+      <c r="AA17" t="str">
         <v>1</v>
       </c>
-      <c r="N17" t="str">
+      <c r="AB17" t="str">
         <v>500</v>
       </c>
-      <c r="O17" t="str">
+      <c r="AC17" t="str">
         <v>1000</v>
       </c>
-      <c r="P17" t="str">
+      <c r="AD17" t="str">
         <v>5000</v>
       </c>
-      <c r="Q17" t="str">
+      <c r="AE17" t="str">
         <v>8300.00</v>
       </c>
-      <c r="R17" t="str">
+      <c r="AF17" t="str">
         <v>81700.00</v>
       </c>
-      <c r="S17">
-        <v>9</v>
-      </c>
-      <c r="T17" t="str">
-        <v>2025-07-16T11:30:34.312Z</v>
-      </c>
-      <c r="U17" t="str">
-        <v>[{"name":"Order Approved","role":"admin","status":"completed","approver":"newuser","timestamp":"2025-07-18T03:31:53.833Z","comments":"Stage approved","action":"approve","truck_number":"KA16D0727                      ","stage_id":1,"stage_sequence":1,"department_name":"Admin"},{"name":"Vehicle Entry Approved (POLYLAM INDUSTRIES)","role":"security","status":"completed","approver":"newuser","timestamp":"2025-07-18T03:31:56.166Z","comments":"Stage approved","action":"approve","truck_number":"KA16D0727                      ","stage_id":1,"stage_sequence":1,"department_name":"Admin"},{"name":"Consignment Verification (POLYLAM INDUSTRIES)","role":"stores","status":"completed","approver":"newuser","timestamp":"2025-07-18T03:32:08.395Z","comments":"Vehicle reached with comments: Good","action":"reached_with_comments","truck_number":"KA16D0727                      ","stage_id":1,"stage_sequence":1,"department_name":"Admin"},{"name":"Vehicle Exit (POLYLAM INDUSTRIES)","role":"security","status":"completed","approver":"newuser","timestamp":"2025-07-18T03:32:13.335Z","comments":"Stage approved","action":"approve","truck_number":"KA16D0727                      ","stage_id":1,"stage_sequence":1,"department_name":"Admin"},{"name":"Vehicle Entry (IndAutoFilters-1)","role":"security","status":"completed","approver":"newuser","timestamp":"2025-07-18T03:32:15.048Z","comments":"Stage approved","action":"approve","truck_number":"KA16D0727                      ","stage_id":1,"stage_sequence":1,"department_name":"Admin"},{"name":"Consignment Verification (IndAutoFilters-1)","role":"stores","status":"completed","approver":"newuser","timestamp":"2025-07-18T03:32:24.581Z","comments":"Vehicle reached with comments: Good","action":"reached_with_comments","truck_number":"KA16D0727                      ","stage_id":1,"stage_sequence":1,"department_name":"Admin"},{"name":"Vehicle Exit (IndAutoFilters-1)","role":"security","status":"completed","approver":"newuser","timestamp":"2025-07-18T03:32:27.714Z","comments":"Stage approved","action":"approve","truck_number":"KA16D0727                      ","stage_id":1,"stage_sequence":1,"department_name":"Admin"},{"name":"Order Approved","role":"admin","status":"completed","approver":"newuser","timestamp":"2025-07-18T03:32:33.053Z","comments":"Stage approved","action":"approve","truck_number":"KA16D0727                      ","stage_id":2,"stage_sequence":2,"department_name":"Admin"},{"name":"Vehicle Entry Approved (CHAKRAPANI VYAPAR PRIVATE LIMITED)","role":"security","status":"completed","approver":"newuser","timestamp":"2025-07-18T03:32:34.862Z","comments":"Stage approved","action":"approve","truck_number":"KA16D0727                      ","stage_id":2,"stage_sequence":2,"department_name":"Admin"},{"name":"Consignment Verification (CHAKRAPANI VYAPAR PRIVATE LIMITED)","role":"stores","status":"completed","approver":"newuser","timestamp":"2025-07-18T03:32:41.427Z","comments":"Vehicle reached with comments: good","action":"reached_with_comments","truck_number":"KA16D0727                      ","stage_id":2,"stage_sequence":2,"department_name":"Admin"},{"name":"Vehicle Exit (CHAKRAPANI VYAPAR PRIVATE LIMITED)","role":"security","status":"completed","approver":"newuser","timestamp":"2025-07-18T03:32:44.034Z","comments":"Stage approved","action":"approve","truck_number":"KA16D0727                      ","stage_id":2,"stage_sequence":2,"department_name":"Admin"},{"name":"Vehicle Entry (IndAutoFilters-4)","role":"security","status":"completed","approver":"newuser","timestamp":"2025-07-18T03:32:46.129Z","comments":"Stage approved","action":"approve","truck_number":"KA16D0727                      ","stage_id":2,"stage_sequence":2,"department_name":"Admin"},{"name":"Consignment Verification (IndAutoFilters-4)","role":"stores","status":"completed","approver":"newuser","timestamp":"2025-07-18T03:32:57.001Z","comments":"Vehicle reached with comments: Best","action":"reached_with_comments","truck_number":"KA16D0727                      ","stage_id":2,"stage_sequence":2,"department_name":"Admin"},{"name":"Vehicle Exit (IndAutoFilters-4)","role":"security","status":"completed","approver":"newuser","timestamp":"2025-07-18T03:32:59.331Z","comments":"Stage approved","action":"approve","truck_number":"KA16D0727                      ","stage_id":2,"stage_sequence":2,"department_name":"Admin"},{"name":"Order Approved","role":"admin","status":"completed","approver":"newuser","timestamp":"2025-07-18T03:33:01.512Z","comments":"Stage approved","action":"approve","truck_number":"KA16D0727                      ","stage_id":3,"stage_sequence":3,"department_name":"Admin"},{"name":"Vehicle Entry Approved (CHAKRAPANI VYAPAR PRIVATE LIMITED)","role":"security","status":"completed","approver":"newuser","timestamp":"2025-07-18T03:33:04.517Z","comments":"Stage approved","action":"approve","truck_number":"KA16D0727                      ","stage_id":3,"stage_sequence":3,"department_name":"Admin"},{"name":"Consignment Verification (CHAKRAPANI VYAPAR PRIVATE LIMITED)","role":"stores","status":"completed","approver":"newuser","timestamp":"2025-07-18T03:33:10.718Z","comments":"Vehicle reached with comments: best","action":"reached_with_comments","truck_number":"KA16D0727                      ","stage_id":3,"stage_sequence":3,"department_name":"Admin"},{"name":"Vehicle Exit (CHAKRAPANI VYAPAR PRIVATE LIMITED)","role":"security","status":"completed","approver":"newuser","timestamp":"2025-07-18T03:33:13.415Z","comments":"Stage approved","action":"approve","truck_number":"KA16D0727                      ","stage_id":3,"stage_sequence":3,"department_name":"Admin"},{"name":"Vehicle Entry (Soliflex Packaging-3)","role":"security","status":"completed","approver":"newuser","timestamp":"2025-07-18T03:33:15.016Z","comments":"Stage approved","action":"approve","truck_number":"KA16D0727                      ","stage_id":3,"stage_sequence":3,"department_name":"Admin"},{"name":"Consignment Verification (Soliflex Packaging-3)","role":"stores","status":"completed","approver":"newuser","timestamp":"2025-07-18T03:33:20.169Z","comments":"Vehicle reached with comments: best","action":"reached_with_comments","truck_number":"KA16D0727                      ","stage_id":3,"stage_sequence":3,"department_name":"Admin"},{"name":"Vehicle Exit (Soliflex Packaging-3)","role":"security","status":"completed","approver":"newuser","timestamp":"2025-07-18T03:33:23.433Z","comments":"Stage approved","action":"approve","truck_number":"KA16D0727                      ","stage_id":3,"stage_sequence":3,"department_name":"Admin"}]</v>
-      </c>
-      <c r="V17" t="str">
-        <v>completed</v>
-      </c>
-      <c r="W17" t="str">
-        <v xml:space="preserve">KA16D0727                      </v>
-      </c>
-      <c r="X17" t="str">
-        <v>multiple</v>
-      </c>
-      <c r="Z17" t="str">
-        <v/>
-      </c>
-      <c r="AA17" t="str">
+      <c r="AG17" t="str">
         <v>[{"id":1,"source":"POLYLAM INDUSTRIES","destination":"IndAutoFilters-1","sequence":1},{"id":2,"source":"CHAKRAPANI VYAPAR PRIVATE LIMITED","destination":"IndAutoFilters-4","sequence":2},{"id":3,"source":"CHAKRAPANI VYAPAR PRIVATE LIMITED","destination":"Soliflex Packaging-3","sequence":3}]</v>
-      </c>
-      <c r="AB17" t="str">
-        <v>days</v>
-      </c>
-      <c r="AC17">
-        <v>4</v>
       </c>
     </row>
     <row r="18">
@@ -1856,77 +1873,77 @@
       <c r="E18" t="str">
         <v>Kilograms</v>
       </c>
-      <c r="F18" t="str">
+      <c r="F18">
+        <v>9</v>
+      </c>
+      <c r="G18" t="str">
+        <v>2025-07-16T12:20:58.133Z</v>
+      </c>
+      <c r="H18" t="str">
+        <v>[{"name":"Order Approved","role":"admin","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA06D8399                      "},{"name":"Vehicle Entry Approved (ABINANDAN PETRO PACK PVT LTD)","role":"security","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA06D8399                      "},{"name":"Consignment Verification (ABINANDAN PETRO PACK PVT LTD)","role":"stores","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA06D8399                      "},{"name":"Vehicle Exit (ABINANDAN PETRO PACK PVT LTD)","role":"security","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA06D8399                      "},{"name":"Vehicle Entry (IndAutoFilters-2)","role":"security","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA06D8399                      "},{"name":"Consignment Verification (IndAutoFilters-2)","role":"stores","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA06D8399                      "},{"name":"Vehicle Exit (IndAutoFilters-2)","role":"security","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA06D8399                      "}]</v>
+      </c>
+      <c r="I18" t="str">
+        <v>open</v>
+      </c>
+      <c r="N18" t="str">
+        <v xml:space="preserve">KA06D8399                      </v>
+      </c>
+      <c r="O18" t="str">
+        <v>single</v>
+      </c>
+      <c r="P18" t="str">
+        <v>ABINANDAN PETRO PACK PVT LTD</v>
+      </c>
+      <c r="Q18" t="str">
+        <v>IndAutoFilters-2</v>
+      </c>
+      <c r="R18" t="str">
         <v>7000</v>
       </c>
-      <c r="G18" t="str">
+      <c r="S18" t="str">
         <v>175.00</v>
       </c>
-      <c r="H18" t="str">
+      <c r="T18" t="str">
         <v>175.00</v>
       </c>
-      <c r="I18" t="str">
+      <c r="U18" t="str">
+        <v>hours</v>
+      </c>
+      <c r="V18">
+        <v>4</v>
+      </c>
+      <c r="W18" t="str">
         <v>5678</v>
       </c>
-      <c r="J18" t="str">
+      <c r="X18" t="str">
         <v>20</v>
       </c>
-      <c r="K18" t="str">
+      <c r="Y18" t="str">
         <v>&gt;6 MT</v>
       </c>
-      <c r="L18" t="str">
+      <c r="Z18" t="str">
         <v>500</v>
       </c>
-      <c r="M18" t="str">
+      <c r="AA18" t="str">
         <v>2</v>
       </c>
-      <c r="N18" t="str">
+      <c r="AB18" t="str">
         <v>200</v>
       </c>
-      <c r="O18" t="str">
+      <c r="AC18" t="str">
         <v>500</v>
       </c>
-      <c r="P18" t="str">
+      <c r="AD18" t="str">
         <v>6500</v>
       </c>
-      <c r="Q18" t="str">
+      <c r="AE18" t="str">
         <v>9200.00</v>
       </c>
-      <c r="R18" t="str">
+      <c r="AF18" t="str">
         <v>-2200.00</v>
       </c>
-      <c r="S18">
-        <v>9</v>
-      </c>
-      <c r="T18" t="str">
-        <v>2025-07-16T12:20:58.133Z</v>
-      </c>
-      <c r="U18" t="str">
-        <v>[{"name":"Order Approved","role":"admin","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA06D8399                      "},{"name":"Vehicle Entry Approved (ABINANDAN PETRO PACK PVT LTD)","role":"security","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA06D8399                      "},{"name":"Consignment Verification (ABINANDAN PETRO PACK PVT LTD)","role":"stores","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA06D8399                      "},{"name":"Vehicle Exit (ABINANDAN PETRO PACK PVT LTD)","role":"security","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA06D8399                      "},{"name":"Vehicle Entry (IndAutoFilters-2)","role":"security","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA06D8399                      "},{"name":"Consignment Verification (IndAutoFilters-2)","role":"stores","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA06D8399                      "},{"name":"Vehicle Exit (IndAutoFilters-2)","role":"security","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA06D8399                      "}]</v>
-      </c>
-      <c r="V18" t="str">
-        <v>open</v>
-      </c>
-      <c r="W18" t="str">
-        <v xml:space="preserve">KA06D8399                      </v>
-      </c>
-      <c r="X18" t="str">
-        <v>single</v>
-      </c>
-      <c r="Y18" t="str">
-        <v>ABINANDAN PETRO PACK PVT LTD</v>
-      </c>
-      <c r="Z18" t="str">
-        <v>IndAutoFilters-2</v>
-      </c>
-      <c r="AA18" t="str">
+      <c r="AG18" t="str">
         <v/>
-      </c>
-      <c r="AB18" t="str">
-        <v>hours</v>
-      </c>
-      <c r="AC18">
-        <v>4</v>
       </c>
     </row>
     <row r="19">
@@ -1945,77 +1962,77 @@
       <c r="E19" t="str">
         <v>Kilograms</v>
       </c>
-      <c r="F19" t="str">
+      <c r="F19">
+        <v>9</v>
+      </c>
+      <c r="G19" t="str">
+        <v>2025-07-18T04:19:06.030Z</v>
+      </c>
+      <c r="H19" t="str">
+        <v>[{"name":"Order Approved","role":"admin","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA51AF2387                   "},{"name":"Vehicle Entry Approved (BULK LIQUID SOLUTIONS)","role":"security","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA51AF2387                   "},{"name":"Consignment Verification (BULK LIQUID SOLUTIONS)","role":"stores","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA51AF2387                   "},{"name":"Vehicle Exit (BULK LIQUID SOLUTIONS)","role":"security","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA51AF2387                   "},{"name":"Vehicle Entry (Soliflex Packaging-2)","role":"security","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA51AF2387                   "},{"name":"Consignment Verification (Soliflex Packaging-2)","role":"stores","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA51AF2387                   "},{"name":"Vehicle Exit (Soliflex Packaging-2)","role":"security","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA51AF2387                   "},{"name":"Order Approved","role":"admin","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"ka03ec8000"},{"name":"Vehicle Entry Approved (BULK LIQUID SOLUTIONS)","role":"security","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"ka03ec8000"},{"name":"Consignment Verification (BULK LIQUID SOLUTIONS)","role":"stores","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"ka03ec8000"},{"name":"Vehicle Exit (BULK LIQUID SOLUTIONS)","role":"security","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"ka03ec8000"},{"name":"Vehicle Entry (Soliflex Packaging-2)","role":"security","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"ka03ec8000"},{"name":"Consignment Verification (Soliflex Packaging-2)","role":"stores","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"ka03ec8000"},{"name":"Vehicle Exit (Soliflex Packaging-2)","role":"security","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"ka03ec8000"}]</v>
+      </c>
+      <c r="I19" t="str">
+        <v>open</v>
+      </c>
+      <c r="N19" t="str">
+        <v>KA51AF2387                   ,ka03ec8000</v>
+      </c>
+      <c r="O19" t="str">
+        <v>single</v>
+      </c>
+      <c r="P19" t="str">
+        <v>BULK LIQUID SOLUTIONS</v>
+      </c>
+      <c r="Q19" t="str">
+        <v>Soliflex Packaging-2</v>
+      </c>
+      <c r="R19" t="str">
         <v>80000</v>
       </c>
-      <c r="G19" t="str">
+      <c r="S19" t="str">
         <v>2000.00</v>
       </c>
-      <c r="H19" t="str">
+      <c r="T19" t="str">
         <v>2000.00</v>
       </c>
-      <c r="I19" t="str">
+      <c r="U19" t="str">
+        <v>hours</v>
+      </c>
+      <c r="V19" t="str">
+        <v>50</v>
+      </c>
+      <c r="W19" t="str">
         <v>9485</v>
       </c>
-      <c r="J19" t="str">
+      <c r="X19" t="str">
         <v>7000</v>
       </c>
-      <c r="K19" t="str">
+      <c r="Y19" t="str">
         <v>&gt;6 MT</v>
       </c>
-      <c r="L19" t="str">
+      <c r="Z19" t="str">
         <v>600</v>
       </c>
-      <c r="M19" t="str">
+      <c r="AA19" t="str">
         <v>1</v>
       </c>
-      <c r="N19" t="str">
+      <c r="AB19" t="str">
         <v>500</v>
       </c>
-      <c r="O19" t="str">
+      <c r="AC19" t="str">
         <v>2</v>
       </c>
-      <c r="P19" t="str">
+      <c r="AD19" t="str">
         <v/>
       </c>
-      <c r="Q19" t="str">
+      <c r="AE19" t="str">
         <v>2402.00</v>
       </c>
-      <c r="R19" t="str">
+      <c r="AF19" t="str">
         <v>77598.00</v>
       </c>
-      <c r="S19">
-        <v>9</v>
-      </c>
-      <c r="T19" t="str">
-        <v>2025-07-18T04:19:06.030Z</v>
-      </c>
-      <c r="U19" t="str">
-        <v>[{"name":"Order Approved","role":"admin","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA51AF2387                   "},{"name":"Vehicle Entry Approved (BULK LIQUID SOLUTIONS)","role":"security","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA51AF2387                   "},{"name":"Consignment Verification (BULK LIQUID SOLUTIONS)","role":"stores","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA51AF2387                   "},{"name":"Vehicle Exit (BULK LIQUID SOLUTIONS)","role":"security","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA51AF2387                   "},{"name":"Vehicle Entry (Soliflex Packaging-2)","role":"security","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA51AF2387                   "},{"name":"Consignment Verification (Soliflex Packaging-2)","role":"stores","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA51AF2387                   "},{"name":"Vehicle Exit (Soliflex Packaging-2)","role":"security","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA51AF2387                   "},{"name":"Order Approved","role":"admin","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"ka03ec8000"},{"name":"Vehicle Entry Approved (BULK LIQUID SOLUTIONS)","role":"security","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"ka03ec8000"},{"name":"Consignment Verification (BULK LIQUID SOLUTIONS)","role":"stores","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"ka03ec8000"},{"name":"Vehicle Exit (BULK LIQUID SOLUTIONS)","role":"security","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"ka03ec8000"},{"name":"Vehicle Entry (Soliflex Packaging-2)","role":"security","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"ka03ec8000"},{"name":"Consignment Verification (Soliflex Packaging-2)","role":"stores","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"ka03ec8000"},{"name":"Vehicle Exit (Soliflex Packaging-2)","role":"security","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"ka03ec8000"}]</v>
-      </c>
-      <c r="V19" t="str">
-        <v>open</v>
-      </c>
-      <c r="W19" t="str">
-        <v>KA51AF2387                   ,ka03ec8000</v>
-      </c>
-      <c r="X19" t="str">
-        <v>single</v>
-      </c>
-      <c r="Y19" t="str">
-        <v>BULK LIQUID SOLUTIONS</v>
-      </c>
-      <c r="Z19" t="str">
-        <v>Soliflex Packaging-2</v>
-      </c>
-      <c r="AA19" t="str">
+      <c r="AG19" t="str">
         <v/>
-      </c>
-      <c r="AB19" t="str">
-        <v>hours</v>
-      </c>
-      <c r="AC19" t="str">
-        <v>50</v>
       </c>
     </row>
     <row r="20">
@@ -2034,76 +2051,76 @@
       <c r="E20" t="str">
         <v>Kilograms</v>
       </c>
-      <c r="F20" t="str">
+      <c r="F20">
+        <v>9</v>
+      </c>
+      <c r="G20" t="str">
+        <v>2025-07-18T10:07:16.499Z</v>
+      </c>
+      <c r="H20" t="str">
+        <v>[{"name":"Order Approved","role":"admin","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA03EF5000"},{"name":"Vehicle Entry Approved (BULK LIQUID SOLUTIONS)","role":"security","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA03EF5000"},{"name":"Consignment Verification (BULK LIQUID SOLUTIONS)","role":"stores","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA03EF5000"},{"name":"Vehicle Exit (BULK LIQUID SOLUTIONS)","role":"security","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA03EF5000"},{"name":"Vehicle Entry (GOTAWAT INDUSTRIES)","role":"security","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA03EF5000"},{"name":"Consignment Verification (GOTAWAT INDUSTRIES)","role":"stores","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA03EF5000"},{"name":"Vehicle Exit (GOTAWAT INDUSTRIES)","role":"security","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA03EF5000"}]</v>
+      </c>
+      <c r="I20" t="str">
+        <v>open</v>
+      </c>
+      <c r="N20" t="str">
+        <v>KA03EF5000</v>
+      </c>
+      <c r="O20" t="str">
+        <v>single</v>
+      </c>
+      <c r="P20" t="str">
+        <v>BULK LIQUID SOLUTIONS</v>
+      </c>
+      <c r="Q20" t="str">
+        <v>GOTAWAT INDUSTRIES</v>
+      </c>
+      <c r="R20" t="str">
         <v>8000</v>
       </c>
-      <c r="G20" t="str">
+      <c r="S20" t="str">
         <v>200.00</v>
       </c>
-      <c r="H20" t="str">
+      <c r="T20" t="str">
         <v>200.00</v>
       </c>
-      <c r="I20" t="str">
+      <c r="U20" t="str">
+        <v>hours</v>
+      </c>
+      <c r="V20" t="str">
+        <v/>
+      </c>
+      <c r="W20" t="str">
         <v>56789</v>
       </c>
-      <c r="J20" t="str">
+      <c r="X20" t="str">
         <v>8000</v>
       </c>
-      <c r="K20" t="str">
+      <c r="Y20" t="str">
         <v>&gt;6 MT</v>
       </c>
-      <c r="L20" t="str">
+      <c r="Z20" t="str">
         <v>800</v>
-      </c>
-      <c r="M20" t="str">
-        <v/>
-      </c>
-      <c r="N20" t="str">
-        <v/>
-      </c>
-      <c r="O20" t="str">
-        <v/>
-      </c>
-      <c r="P20" t="str">
-        <v/>
-      </c>
-      <c r="Q20" t="str">
-        <v>2100.00</v>
-      </c>
-      <c r="R20" t="str">
-        <v>5900.00</v>
-      </c>
-      <c r="S20">
-        <v>9</v>
-      </c>
-      <c r="T20" t="str">
-        <v>2025-07-18T10:07:16.499Z</v>
-      </c>
-      <c r="U20" t="str">
-        <v>[{"name":"Order Approved","role":"admin","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA03EF5000"},{"name":"Vehicle Entry Approved (BULK LIQUID SOLUTIONS)","role":"security","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA03EF5000"},{"name":"Consignment Verification (BULK LIQUID SOLUTIONS)","role":"stores","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA03EF5000"},{"name":"Vehicle Exit (BULK LIQUID SOLUTIONS)","role":"security","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA03EF5000"},{"name":"Vehicle Entry (GOTAWAT INDUSTRIES)","role":"security","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA03EF5000"},{"name":"Consignment Verification (GOTAWAT INDUSTRIES)","role":"stores","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA03EF5000"},{"name":"Vehicle Exit (GOTAWAT INDUSTRIES)","role":"security","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA03EF5000"}]</v>
-      </c>
-      <c r="V20" t="str">
-        <v>open</v>
-      </c>
-      <c r="W20" t="str">
-        <v>KA03EF5000</v>
-      </c>
-      <c r="X20" t="str">
-        <v>single</v>
-      </c>
-      <c r="Y20" t="str">
-        <v>BULK LIQUID SOLUTIONS</v>
-      </c>
-      <c r="Z20" t="str">
-        <v>GOTAWAT INDUSTRIES</v>
       </c>
       <c r="AA20" t="str">
         <v/>
       </c>
       <c r="AB20" t="str">
-        <v>hours</v>
+        <v/>
       </c>
       <c r="AC20" t="str">
+        <v/>
+      </c>
+      <c r="AD20" t="str">
+        <v/>
+      </c>
+      <c r="AE20" t="str">
+        <v>2100.00</v>
+      </c>
+      <c r="AF20" t="str">
+        <v>5900.00</v>
+      </c>
+      <c r="AG20" t="str">
         <v/>
       </c>
     </row>
@@ -2123,77 +2140,77 @@
       <c r="E21" t="str">
         <v>Wastage</v>
       </c>
-      <c r="F21" t="str">
+      <c r="F21">
+        <v>9</v>
+      </c>
+      <c r="G21" t="str">
+        <v>2025-07-19T16:26:27.801Z</v>
+      </c>
+      <c r="H21" t="str">
+        <v>[{"name":"Order Approved","role":"admin","status":"completed","approver":"admin1","timestamp":"2025-07-19T16:26:40.880Z","comments":"Stage approved","action":"approve","truck_number":"KA02AB1409                   ","department_name":"Admin"},{"name":"Vehicle Entry Approved (SUNSHINE INDUSTRIES)","role":"security","status":"completed","approver":"admin1","timestamp":"2025-07-19T16:26:43.446Z","comments":"Stage approved","action":"approve","truck_number":"KA02AB1409                   ","department_name":"Admin"},{"name":"Consignment Verification (SUNSHINE INDUSTRIES)","role":"stores","status":"completed","approver":"admin1","timestamp":"2025-07-19T16:26:49.048Z","comments":"Vehicle reached with comments: good","action":"reached_with_comments","truck_number":"KA02AB1409                   ","department_name":"Admin"},{"name":"Vehicle Exit (SUNSHINE INDUSTRIES)","role":"security","status":"completed","approver":"admin1","timestamp":"2025-07-19T16:26:52.136Z","comments":"Stage approved","action":"approve","truck_number":"KA02AB1409                   ","department_name":"Admin"},{"name":"Vehicle Entry (Soliflex Packaging-2)","role":"security","status":"completed","approver":"admin1","timestamp":"2025-07-19T16:26:54.015Z","comments":"Stage approved","action":"approve","truck_number":"KA02AB1409                   ","department_name":"Admin"},{"name":"Consignment Verification (Soliflex Packaging-2)","role":"stores","status":"completed","approver":"admin1","timestamp":"2025-07-19T16:27:00.187Z","comments":"Vehicle reached with comments: 8954","action":"reached_with_comments","truck_number":"KA02AB1409                   ","department_name":"Admin"},{"name":"Vehicle Exit (Soliflex Packaging-2)","role":"security","status":"completed","approver":"admin1","timestamp":"2025-07-19T16:27:02.828Z","comments":"Stage approved","action":"approve","truck_number":"KA02AB1409                   ","department_name":"Admin"}]</v>
+      </c>
+      <c r="I21" t="str">
+        <v>completed</v>
+      </c>
+      <c r="N21" t="str">
+        <v xml:space="preserve">KA02AB1409                   </v>
+      </c>
+      <c r="O21" t="str">
+        <v>single</v>
+      </c>
+      <c r="P21" t="str">
+        <v>SUNSHINE INDUSTRIES</v>
+      </c>
+      <c r="Q21" t="str">
+        <v>Soliflex Packaging-2</v>
+      </c>
+      <c r="R21" t="str">
         <v>60000</v>
       </c>
-      <c r="G21" t="str">
+      <c r="S21" t="str">
         <v>1500.00</v>
       </c>
-      <c r="H21" t="str">
+      <c r="T21" t="str">
         <v>1500.00</v>
       </c>
-      <c r="I21" t="str">
+      <c r="U21" t="str">
+        <v>hours</v>
+      </c>
+      <c r="V21" t="str">
+        <v>5</v>
+      </c>
+      <c r="W21" t="str">
         <v>568790</v>
       </c>
-      <c r="J21" t="str">
+      <c r="X21" t="str">
         <v/>
       </c>
-      <c r="K21" t="str">
+      <c r="Y21" t="str">
         <v>Other</v>
       </c>
-      <c r="L21" t="str">
+      <c r="Z21" t="str">
         <v>400</v>
       </c>
-      <c r="M21" t="str">
+      <c r="AA21" t="str">
         <v>1</v>
       </c>
-      <c r="N21" t="str">
+      <c r="AB21" t="str">
         <v>500</v>
       </c>
-      <c r="O21" t="str">
+      <c r="AC21" t="str">
         <v>600</v>
       </c>
-      <c r="P21" t="str">
+      <c r="AD21" t="str">
         <v>50000</v>
       </c>
-      <c r="Q21" t="str">
+      <c r="AE21" t="str">
         <v>51500.00</v>
       </c>
-      <c r="R21" t="str">
+      <c r="AF21" t="str">
         <v>8500.00</v>
       </c>
-      <c r="S21">
-        <v>9</v>
-      </c>
-      <c r="T21" t="str">
-        <v>2025-07-19T16:26:27.801Z</v>
-      </c>
-      <c r="U21" t="str">
-        <v>[{"name":"Order Approved","role":"admin","status":"completed","approver":"admin1","timestamp":"2025-07-19T16:26:40.880Z","comments":"Stage approved","action":"approve","truck_number":"KA02AB1409                   ","department_name":"Admin"},{"name":"Vehicle Entry Approved (SUNSHINE INDUSTRIES)","role":"security","status":"completed","approver":"admin1","timestamp":"2025-07-19T16:26:43.446Z","comments":"Stage approved","action":"approve","truck_number":"KA02AB1409                   ","department_name":"Admin"},{"name":"Consignment Verification (SUNSHINE INDUSTRIES)","role":"stores","status":"completed","approver":"admin1","timestamp":"2025-07-19T16:26:49.048Z","comments":"Vehicle reached with comments: good","action":"reached_with_comments","truck_number":"KA02AB1409                   ","department_name":"Admin"},{"name":"Vehicle Exit (SUNSHINE INDUSTRIES)","role":"security","status":"completed","approver":"admin1","timestamp":"2025-07-19T16:26:52.136Z","comments":"Stage approved","action":"approve","truck_number":"KA02AB1409                   ","department_name":"Admin"},{"name":"Vehicle Entry (Soliflex Packaging-2)","role":"security","status":"completed","approver":"admin1","timestamp":"2025-07-19T16:26:54.015Z","comments":"Stage approved","action":"approve","truck_number":"KA02AB1409                   ","department_name":"Admin"},{"name":"Consignment Verification (Soliflex Packaging-2)","role":"stores","status":"completed","approver":"admin1","timestamp":"2025-07-19T16:27:00.187Z","comments":"Vehicle reached with comments: 8954","action":"reached_with_comments","truck_number":"KA02AB1409                   ","department_name":"Admin"},{"name":"Vehicle Exit (Soliflex Packaging-2)","role":"security","status":"completed","approver":"admin1","timestamp":"2025-07-19T16:27:02.828Z","comments":"Stage approved","action":"approve","truck_number":"KA02AB1409                   ","department_name":"Admin"}]</v>
-      </c>
-      <c r="V21" t="str">
-        <v>completed</v>
-      </c>
-      <c r="W21" t="str">
-        <v xml:space="preserve">KA02AB1409                   </v>
-      </c>
-      <c r="X21" t="str">
-        <v>single</v>
-      </c>
-      <c r="Y21" t="str">
-        <v>SUNSHINE INDUSTRIES</v>
-      </c>
-      <c r="Z21" t="str">
-        <v>Soliflex Packaging-2</v>
-      </c>
-      <c r="AA21" t="str">
+      <c r="AG21" t="str">
         <v/>
-      </c>
-      <c r="AB21" t="str">
-        <v>hours</v>
-      </c>
-      <c r="AC21" t="str">
-        <v>5</v>
       </c>
     </row>
     <row r="22">
@@ -2212,77 +2229,77 @@
       <c r="E22" t="str">
         <v>Kilograms</v>
       </c>
-      <c r="F22" t="str">
+      <c r="F22">
+        <v>9</v>
+      </c>
+      <c r="G22" t="str">
+        <v>2025-07-21T14:15:48.132Z</v>
+      </c>
+      <c r="H22" t="str">
+        <v>[{"name":"Order Approved","role":"admin","status":"completed","approver":"admin1","timestamp":"2025-07-21T14:16:03.830Z","comments":"Stage approved","action":"approve","truck_number":"KA06C5133                      ","department_name":"Admin"},{"name":"Vehicle Entry Approved (POLYLAM INDUSTRIES)","role":"security","status":"completed","approver":"admin1","timestamp":"2025-07-21T14:16:05.337Z","comments":"Stage approved","action":"approve","truck_number":"KA06C5133                      ","department_name":"Admin"},{"name":"Consignment Verification (POLYLAM INDUSTRIES)","role":"stores","status":"completed","approver":"admin1","timestamp":"2025-07-21T14:16:14.765Z","comments":"Vehicle reached with comments: satisfactory","action":"reached_with_comments","truck_number":"KA06C5133                      ","department_name":"Admin"},{"name":"Vehicle Exit (POLYLAM INDUSTRIES)","role":"security","status":"completed","approver":"admin1","timestamp":"2025-07-21T14:16:17.777Z","comments":"Stage approved","action":"approve","truck_number":"KA06C5133                      ","department_name":"Admin"},{"name":"Vehicle Entry (Soliflex Packaging-3)","role":"security","status":"completed","approver":"admin1","timestamp":"2025-07-21T14:16:19.449Z","comments":"Stage approved","action":"approve","truck_number":"KA06C5133                      ","department_name":"Admin"},{"name":"Consignment Verification (Soliflex Packaging-3)","role":"stores","status":"completed","approver":"admin1","timestamp":"2025-07-21T14:16:27.392Z","comments":"Vehicle reached with comments: good","action":"reached_with_comments","truck_number":"KA06C5133                      ","department_name":"Admin"},{"name":"Vehicle Exit (Soliflex Packaging-3)","role":"security","status":"completed","approver":"admin1","timestamp":"2025-07-21T14:16:29.706Z","comments":"Stage approved","action":"approve","truck_number":"KA06C5133                      ","department_name":"Admin"}]</v>
+      </c>
+      <c r="I22" t="str">
+        <v>completed</v>
+      </c>
+      <c r="N22" t="str">
+        <v xml:space="preserve">KA06C5133                      </v>
+      </c>
+      <c r="O22" t="str">
+        <v>single</v>
+      </c>
+      <c r="P22" t="str">
+        <v>POLYLAM INDUSTRIES</v>
+      </c>
+      <c r="Q22" t="str">
+        <v>Soliflex Packaging-3</v>
+      </c>
+      <c r="R22" t="str">
         <v>10000</v>
       </c>
-      <c r="G22" t="str">
+      <c r="S22" t="str">
         <v>250.00</v>
       </c>
-      <c r="H22" t="str">
+      <c r="T22" t="str">
         <v>250.00</v>
       </c>
-      <c r="I22" t="str">
+      <c r="U22" t="str">
+        <v>hours</v>
+      </c>
+      <c r="V22" t="str">
+        <v>8</v>
+      </c>
+      <c r="W22" t="str">
         <v>54656</v>
       </c>
-      <c r="J22" t="str">
+      <c r="X22" t="str">
         <v/>
       </c>
-      <c r="K22" t="str">
+      <c r="Y22" t="str">
         <v>&gt; 10 MT</v>
       </c>
-      <c r="L22" t="str">
+      <c r="Z22" t="str">
         <v>300</v>
       </c>
-      <c r="M22" t="str">
+      <c r="AA22" t="str">
         <v>1</v>
       </c>
-      <c r="N22" t="str">
+      <c r="AB22" t="str">
         <v>500</v>
       </c>
-      <c r="O22" t="str">
+      <c r="AC22" t="str">
         <v>4</v>
       </c>
-      <c r="P22" t="str">
+      <c r="AD22" t="str">
         <v>10000</v>
       </c>
-      <c r="Q22" t="str">
+      <c r="AE22" t="str">
         <v>10804.00</v>
       </c>
-      <c r="R22" t="str">
+      <c r="AF22" t="str">
         <v>-804.00</v>
       </c>
-      <c r="S22">
-        <v>9</v>
-      </c>
-      <c r="T22" t="str">
-        <v>2025-07-21T14:15:48.132Z</v>
-      </c>
-      <c r="U22" t="str">
-        <v>[{"name":"Order Approved","role":"admin","status":"completed","approver":"admin1","timestamp":"2025-07-21T14:16:03.830Z","comments":"Stage approved","action":"approve","truck_number":"KA06C5133                      ","department_name":"Admin"},{"name":"Vehicle Entry Approved (POLYLAM INDUSTRIES)","role":"security","status":"completed","approver":"admin1","timestamp":"2025-07-21T14:16:05.337Z","comments":"Stage approved","action":"approve","truck_number":"KA06C5133                      ","department_name":"Admin"},{"name":"Consignment Verification (POLYLAM INDUSTRIES)","role":"stores","status":"completed","approver":"admin1","timestamp":"2025-07-21T14:16:14.765Z","comments":"Vehicle reached with comments: satisfactory","action":"reached_with_comments","truck_number":"KA06C5133                      ","department_name":"Admin"},{"name":"Vehicle Exit (POLYLAM INDUSTRIES)","role":"security","status":"completed","approver":"admin1","timestamp":"2025-07-21T14:16:17.777Z","comments":"Stage approved","action":"approve","truck_number":"KA06C5133                      ","department_name":"Admin"},{"name":"Vehicle Entry (Soliflex Packaging-3)","role":"security","status":"completed","approver":"admin1","timestamp":"2025-07-21T14:16:19.449Z","comments":"Stage approved","action":"approve","truck_number":"KA06C5133                      ","department_name":"Admin"},{"name":"Consignment Verification (Soliflex Packaging-3)","role":"stores","status":"completed","approver":"admin1","timestamp":"2025-07-21T14:16:27.392Z","comments":"Vehicle reached with comments: good","action":"reached_with_comments","truck_number":"KA06C5133                      ","department_name":"Admin"},{"name":"Vehicle Exit (Soliflex Packaging-3)","role":"security","status":"completed","approver":"admin1","timestamp":"2025-07-21T14:16:29.706Z","comments":"Stage approved","action":"approve","truck_number":"KA06C5133                      ","department_name":"Admin"}]</v>
-      </c>
-      <c r="V22" t="str">
-        <v>completed</v>
-      </c>
-      <c r="W22" t="str">
-        <v xml:space="preserve">KA06C5133                      </v>
-      </c>
-      <c r="X22" t="str">
-        <v>single</v>
-      </c>
-      <c r="Y22" t="str">
-        <v>POLYLAM INDUSTRIES</v>
-      </c>
-      <c r="Z22" t="str">
-        <v>Soliflex Packaging-3</v>
-      </c>
-      <c r="AA22" t="str">
+      <c r="AG22" t="str">
         <v/>
-      </c>
-      <c r="AB22" t="str">
-        <v>hours</v>
-      </c>
-      <c r="AC22" t="str">
-        <v>8</v>
       </c>
     </row>
     <row r="23">
@@ -2301,77 +2318,77 @@
       <c r="E23" t="str">
         <v>Kilograms</v>
       </c>
-      <c r="F23" t="str">
+      <c r="F23">
+        <v>17</v>
+      </c>
+      <c r="G23" t="str">
+        <v>2025-07-21T14:42:36.009Z</v>
+      </c>
+      <c r="H23" t="str">
+        <v>[{"name":"Order Approved","role":"admin","status":"completed","approver":"Accounts1","timestamp":"2025-07-21T14:42:46.160Z","comments":"Stage approved","action":"approve","truck_number":"KA01AB2195                   ","department_name":"Accounts Team"},{"name":"Vehicle Entry Approved (BULK LIQUID SOLUTIONS)","role":"security","status":"completed","approver":"security2","timestamp":"2025-07-24T10:22:57.161Z","comments":"Stage approved","action":"approve","truck_number":"KA01AB2195                   ","department_name":"Security-Factory 2"},{"name":"Consignment Verification (BULK LIQUID SOLUTIONS)","role":"stores","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA01AB2195                   "},{"name":"Vehicle Exit (BULK LIQUID SOLUTIONS)","role":"security","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA01AB2195                   "},{"name":"Vehicle Entry (Soliflex Packaging-2)","role":"security","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA01AB2195                   "},{"name":"Consignment Verification (Soliflex Packaging-2)","role":"stores","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA01AB2195                   "},{"name":"Vehicle Exit (Soliflex Packaging-2)","role":"security","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA01AB2195                   "}]</v>
+      </c>
+      <c r="I23" t="str">
+        <v>in_progress</v>
+      </c>
+      <c r="N23" t="str">
+        <v xml:space="preserve">KA01AB2195                   </v>
+      </c>
+      <c r="O23" t="str">
+        <v>single</v>
+      </c>
+      <c r="P23" t="str">
+        <v>BULK LIQUID SOLUTIONS</v>
+      </c>
+      <c r="Q23" t="str">
+        <v>Soliflex Packaging-2</v>
+      </c>
+      <c r="R23" t="str">
         <v>15000</v>
       </c>
-      <c r="G23" t="str">
+      <c r="S23" t="str">
         <v>375.00</v>
       </c>
-      <c r="H23" t="str">
+      <c r="T23" t="str">
         <v>375.00</v>
       </c>
-      <c r="I23" t="str">
+      <c r="U23" t="str">
+        <v>hours</v>
+      </c>
+      <c r="V23" t="str">
+        <v>8</v>
+      </c>
+      <c r="W23" t="str">
         <v>65789</v>
       </c>
-      <c r="J23" t="str">
+      <c r="X23" t="str">
         <v/>
       </c>
-      <c r="K23" t="str">
+      <c r="Y23" t="str">
         <v>&gt; 10 MT</v>
       </c>
-      <c r="L23" t="str">
+      <c r="Z23" t="str">
         <v>300</v>
       </c>
-      <c r="M23" t="str">
+      <c r="AA23" t="str">
         <v>1</v>
       </c>
-      <c r="N23" t="str">
+      <c r="AB23" t="str">
         <v>200</v>
       </c>
-      <c r="O23" t="str">
+      <c r="AC23" t="str">
         <v>1</v>
       </c>
-      <c r="P23" t="str">
+      <c r="AD23" t="str">
         <v>15000</v>
       </c>
-      <c r="Q23" t="str">
+      <c r="AE23" t="str">
         <v>15501.00</v>
       </c>
-      <c r="R23" t="str">
+      <c r="AF23" t="str">
         <v>-501.00</v>
       </c>
-      <c r="S23">
-        <v>17</v>
-      </c>
-      <c r="T23" t="str">
-        <v>2025-07-21T14:42:36.009Z</v>
-      </c>
-      <c r="U23" t="str">
-        <v>[{"name":"Order Approved","role":"admin","status":"completed","approver":"Accounts1","timestamp":"2025-07-21T14:42:46.160Z","comments":"Stage approved","action":"approve","truck_number":"KA01AB2195                   ","department_name":"Accounts Team"},{"name":"Vehicle Entry Approved (BULK LIQUID SOLUTIONS)","role":"security","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA01AB2195                   "},{"name":"Consignment Verification (BULK LIQUID SOLUTIONS)","role":"stores","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA01AB2195                   "},{"name":"Vehicle Exit (BULK LIQUID SOLUTIONS)","role":"security","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA01AB2195                   "},{"name":"Vehicle Entry (Soliflex Packaging-2)","role":"security","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA01AB2195                   "},{"name":"Consignment Verification (Soliflex Packaging-2)","role":"stores","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA01AB2195                   "},{"name":"Vehicle Exit (Soliflex Packaging-2)","role":"security","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA01AB2195                   "}]</v>
-      </c>
-      <c r="V23" t="str">
-        <v>in_progress</v>
-      </c>
-      <c r="W23" t="str">
-        <v xml:space="preserve">KA01AB2195                   </v>
-      </c>
-      <c r="X23" t="str">
-        <v>single</v>
-      </c>
-      <c r="Y23" t="str">
-        <v>BULK LIQUID SOLUTIONS</v>
-      </c>
-      <c r="Z23" t="str">
-        <v>Soliflex Packaging-2</v>
-      </c>
-      <c r="AA23" t="str">
+      <c r="AG23" t="str">
         <v/>
-      </c>
-      <c r="AB23" t="str">
-        <v>hours</v>
-      </c>
-      <c r="AC23" t="str">
-        <v>8</v>
       </c>
     </row>
     <row r="24">
@@ -2390,77 +2407,77 @@
       <c r="E24" t="str">
         <v>Kilograms</v>
       </c>
-      <c r="F24" t="str">
+      <c r="F24">
+        <v>17</v>
+      </c>
+      <c r="G24" t="str">
+        <v>2025-07-23T10:03:09.178Z</v>
+      </c>
+      <c r="H24" t="str">
+        <v>[{"name":"Order Approved","role":"admin","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA06AB2096                   "},{"name":"Vehicle Entry Approved (INNOVA Polypack)","role":"security","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA06AB2096                   "},{"name":"Consignment Verification (INNOVA Polypack)","role":"stores","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA06AB2096                   "},{"name":"Vehicle Exit (INNOVA Polypack)","role":"security","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA06AB2096                   "},{"name":"Vehicle Entry (Soliflex Packaging-3)","role":"security","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA06AB2096                   "},{"name":"Consignment Verification (Soliflex Packaging-3)","role":"stores","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA06AB2096                   "},{"name":"Vehicle Exit (Soliflex Packaging-3)","role":"security","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA06AB2096                   "}]</v>
+      </c>
+      <c r="I24" t="str">
+        <v>open</v>
+      </c>
+      <c r="N24" t="str">
+        <v xml:space="preserve">KA06AB2096                   </v>
+      </c>
+      <c r="O24" t="str">
+        <v>single</v>
+      </c>
+      <c r="P24" t="str">
+        <v>INNOVA Polypack</v>
+      </c>
+      <c r="Q24" t="str">
+        <v>Soliflex Packaging-3</v>
+      </c>
+      <c r="R24" t="str">
         <v>9000</v>
       </c>
-      <c r="G24" t="str">
+      <c r="S24" t="str">
         <v>225.00</v>
       </c>
-      <c r="H24" t="str">
+      <c r="T24" t="str">
         <v>225.00</v>
       </c>
-      <c r="I24" t="str">
+      <c r="U24" t="str">
+        <v>days</v>
+      </c>
+      <c r="V24" t="str">
+        <v>5</v>
+      </c>
+      <c r="W24" t="str">
         <v>ertyui</v>
       </c>
-      <c r="J24" t="str">
+      <c r="X24" t="str">
         <v/>
       </c>
-      <c r="K24" t="str">
+      <c r="Y24" t="str">
         <v>&gt; 10 MT</v>
       </c>
-      <c r="L24" t="str">
+      <c r="Z24" t="str">
         <v>400</v>
       </c>
-      <c r="M24" t="str">
+      <c r="AA24" t="str">
         <v>1</v>
       </c>
-      <c r="N24" t="str">
+      <c r="AB24" t="str">
         <v>500</v>
       </c>
-      <c r="O24" t="str">
+      <c r="AC24" t="str">
         <v>3</v>
       </c>
-      <c r="P24" t="str">
+      <c r="AD24" t="str">
         <v>15000</v>
       </c>
-      <c r="Q24" t="str">
+      <c r="AE24" t="str">
         <v>15903.00</v>
       </c>
-      <c r="R24" t="str">
+      <c r="AF24" t="str">
         <v>-6903.00</v>
       </c>
-      <c r="S24">
-        <v>17</v>
-      </c>
-      <c r="T24" t="str">
-        <v>2025-07-23T10:03:09.178Z</v>
-      </c>
-      <c r="U24" t="str">
-        <v>[{"name":"Order Approved","role":"admin","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA06AB2096                   "},{"name":"Vehicle Entry Approved (INNOVA Polypack)","role":"security","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA06AB2096                   "},{"name":"Consignment Verification (INNOVA Polypack)","role":"stores","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA06AB2096                   "},{"name":"Vehicle Exit (INNOVA Polypack)","role":"security","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA06AB2096                   "},{"name":"Vehicle Entry (Soliflex Packaging-3)","role":"security","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA06AB2096                   "},{"name":"Consignment Verification (Soliflex Packaging-3)","role":"stores","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA06AB2096                   "},{"name":"Vehicle Exit (Soliflex Packaging-3)","role":"security","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA06AB2096                   "}]</v>
-      </c>
-      <c r="V24" t="str">
-        <v>open</v>
-      </c>
-      <c r="W24" t="str">
-        <v xml:space="preserve">KA06AB2096                   </v>
-      </c>
-      <c r="X24" t="str">
-        <v>single</v>
-      </c>
-      <c r="Y24" t="str">
-        <v>INNOVA Polypack</v>
-      </c>
-      <c r="Z24" t="str">
-        <v>Soliflex Packaging-3</v>
-      </c>
-      <c r="AA24" t="str">
+      <c r="AG24" t="str">
         <v/>
-      </c>
-      <c r="AB24" t="str">
-        <v>days</v>
-      </c>
-      <c r="AC24" t="str">
-        <v>5</v>
       </c>
     </row>
     <row r="25">
@@ -2479,77 +2496,77 @@
       <c r="E25" t="str">
         <v>Rolls</v>
       </c>
-      <c r="F25" t="str">
+      <c r="F25">
+        <v>17</v>
+      </c>
+      <c r="G25" t="str">
+        <v>2025-07-24T08:33:15.590Z</v>
+      </c>
+      <c r="H25" t="str">
+        <v>[{"name":"Order Approved","role":"admin","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA06AA7776                   "},{"name":"Vehicle Entry Approved (INNOVA Polypack)","role":"security","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA06AA7776                   "},{"name":"Consignment Verification (INNOVA Polypack)","role":"stores","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA06AA7776                   "},{"name":"Vehicle Exit (INNOVA Polypack)","role":"security","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA06AA7776                   "},{"name":"Vehicle Entry (Soliflex Packaging-4)","role":"security","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA06AA7776                   "},{"name":"Consignment Verification (Soliflex Packaging-4)","role":"stores","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA06AA7776                   "},{"name":"Vehicle Exit (Soliflex Packaging-4)","role":"security","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA06AA7776                   "}]</v>
+      </c>
+      <c r="I25" t="str">
+        <v>open</v>
+      </c>
+      <c r="N25" t="str">
+        <v xml:space="preserve">KA06AA7776                   </v>
+      </c>
+      <c r="O25" t="str">
+        <v>single</v>
+      </c>
+      <c r="P25" t="str">
+        <v>INNOVA Polypack</v>
+      </c>
+      <c r="Q25" t="str">
+        <v>Soliflex Packaging-4</v>
+      </c>
+      <c r="R25" t="str">
         <v>7000</v>
       </c>
-      <c r="G25" t="str">
+      <c r="S25" t="str">
         <v>175.00</v>
       </c>
-      <c r="H25" t="str">
+      <c r="T25" t="str">
         <v>175.00</v>
       </c>
-      <c r="I25" t="str">
+      <c r="U25" t="str">
+        <v>hours</v>
+      </c>
+      <c r="V25" t="str">
+        <v>2</v>
+      </c>
+      <c r="W25" t="str">
         <v>57648</v>
       </c>
-      <c r="J25" t="str">
+      <c r="X25" t="str">
         <v/>
       </c>
-      <c r="K25" t="str">
+      <c r="Y25" t="str">
         <v>&gt; 6 MT</v>
       </c>
-      <c r="L25" t="str">
+      <c r="Z25" t="str">
         <v>800</v>
       </c>
-      <c r="M25" t="str">
+      <c r="AA25" t="str">
         <v>0</v>
       </c>
-      <c r="N25" t="str">
+      <c r="AB25" t="str">
         <v>0</v>
       </c>
-      <c r="O25" t="str">
+      <c r="AC25" t="str">
         <v>0</v>
       </c>
-      <c r="P25" t="str">
+      <c r="AD25" t="str">
         <v>7000</v>
       </c>
-      <c r="Q25" t="str">
+      <c r="AE25" t="str">
         <v>7800.00</v>
       </c>
-      <c r="R25" t="str">
+      <c r="AF25" t="str">
         <v>-800.00</v>
       </c>
-      <c r="S25">
-        <v>17</v>
-      </c>
-      <c r="T25" t="str">
-        <v>2025-07-24T08:33:15.590Z</v>
-      </c>
-      <c r="U25" t="str">
-        <v>[{"name":"Order Approved","role":"admin","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA06AA7776                   "},{"name":"Vehicle Entry Approved (INNOVA Polypack)","role":"security","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA06AA7776                   "},{"name":"Consignment Verification (INNOVA Polypack)","role":"stores","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA06AA7776                   "},{"name":"Vehicle Exit (INNOVA Polypack)","role":"security","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA06AA7776                   "},{"name":"Vehicle Entry (Soliflex Packaging-4)","role":"security","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA06AA7776                   "},{"name":"Consignment Verification (Soliflex Packaging-4)","role":"stores","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA06AA7776                   "},{"name":"Vehicle Exit (Soliflex Packaging-4)","role":"security","status":"pending","approver":null,"timestamp":null,"comments":null,"action":null,"truck_number":"KA06AA7776                   "}]</v>
-      </c>
-      <c r="V25" t="str">
-        <v>open</v>
-      </c>
-      <c r="W25" t="str">
-        <v xml:space="preserve">KA06AA7776                   </v>
-      </c>
-      <c r="X25" t="str">
-        <v>single</v>
-      </c>
-      <c r="Y25" t="str">
-        <v>INNOVA Polypack</v>
-      </c>
-      <c r="Z25" t="str">
-        <v>Soliflex Packaging-4</v>
-      </c>
-      <c r="AA25" t="str">
+      <c r="AG25" t="str">
         <v/>
-      </c>
-      <c r="AB25" t="str">
-        <v>hours</v>
-      </c>
-      <c r="AC25" t="str">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
